--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard Fail Skip" sheetId="15" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="15" r:id="rId1"/>
     <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
-    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Tags" sheetId="16" r:id="rId3"/>
     <sheet name="Features" sheetId="2" r:id="rId4"/>
     <sheet name="Execution" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId6"/>
@@ -26,6 +26,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mounishsaha</author>
+  </authors>
+  <commentList>
+    <comment ref="H19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mounishsaha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
@@ -98,75 +132,171 @@
     <t>Steps Skipped</t>
   </si>
   <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>FEATURE NAME</t>
+  </si>
+  <si>
+    <t>SCENARIO NAME</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
+    <t>Nov 18 2022, 3:30 PM</t>
+  </si>
+  <si>
+    <t>Nov 18 2022, 3:32 PM</t>
+  </si>
+  <si>
+    <t>Features Total</t>
+  </si>
+  <si>
+    <t>Scenarios Total</t>
+  </si>
+  <si>
+    <t>Steps Total</t>
+  </si>
+  <si>
+    <t>SCENARIO STATUS</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>Scenario 4</t>
+  </si>
+  <si>
+    <t>Scenario 5</t>
+  </si>
+  <si>
+    <t>Scenario 6</t>
+  </si>
+  <si>
+    <t>Scenario 7</t>
+  </si>
+  <si>
+    <t>Scenario 8</t>
+  </si>
+  <si>
+    <t>Scenario 9</t>
+  </si>
+  <si>
+    <t>Scenario 10</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
+    <t>Excel Extent Report</t>
+  </si>
+  <si>
+    <t>2 m 37 s</t>
+  </si>
+  <si>
+    <t>SCENARIO PASS</t>
+  </si>
+  <si>
+    <t>SCENARIO TOTAL</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL</t>
+  </si>
+  <si>
+    <t>SCENARIO SKIP</t>
+  </si>
+  <si>
+    <t>STEP TOTAL</t>
+  </si>
+  <si>
+    <t>STEP PASS</t>
+  </si>
+  <si>
+    <t>STEP FAIL</t>
+  </si>
+  <si>
+    <t>STEP SKIP</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 11</t>
+  </si>
+  <si>
+    <t>Level 111</t>
+  </si>
+  <si>
+    <t>Level 1111</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>Scenario Passed</t>
+  </si>
+  <si>
+    <t>Scenario Failed</t>
+  </si>
+  <si>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
-    <t>DURATION</t>
-  </si>
-  <si>
-    <t>FEATURE NAME</t>
-  </si>
-  <si>
-    <t>SCENARIO NAME</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>FEATURE STATUS</t>
-  </si>
-  <si>
-    <t>Nov 18 2022, 3:30 PM</t>
-  </si>
-  <si>
-    <t>Nov 18 2022, 3:32 PM</t>
-  </si>
-  <si>
-    <t>Features Total</t>
-  </si>
-  <si>
-    <t>Scenarios Total</t>
-  </si>
-  <si>
-    <t>Steps Total</t>
-  </si>
-  <si>
-    <t>SCENARIO STATUS</t>
-  </si>
-  <si>
-    <t>Scenario 1</t>
-  </si>
-  <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>Scenario 3</t>
-  </si>
-  <si>
-    <t>Scenario 4</t>
-  </si>
-  <si>
-    <t>Scenario 5</t>
-  </si>
-  <si>
-    <t>Scenario 6</t>
-  </si>
-  <si>
-    <t>Scenario 7</t>
-  </si>
-  <si>
-    <t>Scenario 8</t>
-  </si>
-  <si>
-    <t>Scenario 9</t>
-  </si>
-  <si>
-    <t>Scenario 10</t>
-  </si>
-  <si>
-    <t>tag1</t>
-  </si>
-  <si>
     <t>tag2</t>
   </si>
   <si>
@@ -177,102 +307,6 @@
   </si>
   <si>
     <t>tag5</t>
-  </si>
-  <si>
-    <t>Excel Extent Report</t>
-  </si>
-  <si>
-    <t>2 m 37 s</t>
-  </si>
-  <si>
-    <t>SCENARIO PASS</t>
-  </si>
-  <si>
-    <t>SCENARIO TOTAL</t>
-  </si>
-  <si>
-    <t>SCENARIO FAIL</t>
-  </si>
-  <si>
-    <t>SCENARIO SKIP</t>
-  </si>
-  <si>
-    <t>STEP TOTAL</t>
-  </si>
-  <si>
-    <t>STEP PASS</t>
-  </si>
-  <si>
-    <t>STEP FAIL</t>
-  </si>
-  <si>
-    <t>STEP SKIP</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Level 11</t>
-  </si>
-  <si>
-    <t>Level 111</t>
-  </si>
-  <si>
-    <t>Level 1111</t>
-  </si>
-  <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>Scenario Passed</t>
-  </si>
-  <si>
-    <t>Scenario Failed</t>
-  </si>
-  <si>
-    <t>Scenario Skipped</t>
-  </si>
-  <si>
-    <t>Tag Name</t>
-  </si>
-  <si>
-    <t>Feature Name</t>
-  </si>
-  <si>
-    <t>Feature Status</t>
-  </si>
-  <si>
-    <t>Scenario Name</t>
-  </si>
-  <si>
-    <t>Scenario Status</t>
-  </si>
-  <si>
-    <t>Step Passed</t>
-  </si>
-  <si>
-    <t>Step Failed</t>
-  </si>
-  <si>
-    <t>Step Skipped</t>
-  </si>
-  <si>
-    <t>FEATURE FAIL SKIP</t>
-  </si>
-  <si>
-    <t>SCENARIO FAIL SKIP</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>FAILED &amp; SKIPPED SCENARIOS</t>
   </si>
 </sst>
 </file>
@@ -282,7 +316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m:s.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +348,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -389,6 +436,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,9 +614,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -790,9 +836,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1014,9 +1058,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1145,7 +1187,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1195,7 +1236,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1269,7 +1309,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1343,7 +1382,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1440,7 +1478,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -1520,7 +1557,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1570,7 +1606,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1644,7 +1679,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1718,7 +1752,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1810,7 +1843,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2334,6 +2366,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2383,6 +2416,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2433,7 +2467,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
+              <c16:uniqueId val="{00000000-AFA8-44C4-80CD-B37A185A049B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2477,6 +2511,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2527,7 +2562,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2604-4208-BEA8-EA9F96270641}"/>
+              <c16:uniqueId val="{00000001-AFA8-44C4-80CD-B37A185A049B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2571,6 +2606,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2618,7 +2654,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2604-4208-BEA8-EA9F96270641}"/>
+              <c16:uniqueId val="{00000002-AFA8-44C4-80CD-B37A185A049B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5153,8 +5189,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5547,7 +5585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B37:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -5564,23 +5602,23 @@
   <sheetData>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5619,36 +5657,36 @@
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -5671,7 +5709,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -5694,7 +5732,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -5717,7 +5755,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -5740,7 +5778,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -5763,7 +5801,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -5792,7 +5830,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -5821,7 +5859,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -5844,7 +5882,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -5867,7 +5905,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -5900,7 +5938,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
   <dimension ref="B20:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5923,24 +5960,24 @@
   <sheetData>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -5957,7 +5994,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -5968,7 +6005,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -5985,7 +6022,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -6002,7 +6039,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -6051,37 +6088,37 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
         <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -6238,104 +6275,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
@@ -6346,12 +6383,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6389,7 +6426,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -6415,7 +6452,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -6441,7 +6478,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -6467,24 +6504,24 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <f>SUM(F2:F4)</f>
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <f>SUM(H2:H4)</f>
@@ -6496,67 +6533,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="S19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I19" t="s">
+      <c r="T19" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="J19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" t="s">
-        <v>74</v>
-      </c>
-      <c r="T19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6568,10 +6605,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -6583,10 +6620,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -6616,5 +6653,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,18 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="15" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
-    <sheet name="Tags" sheetId="16" r:id="rId3"/>
-    <sheet name="Features" sheetId="2" r:id="rId4"/>
+    <sheet name="Scenarios" sheetId="17" r:id="rId2"/>
+    <sheet name="Tags" sheetId="18" r:id="rId3"/>
+    <sheet name="Features" sheetId="19" r:id="rId4"/>
     <sheet name="Execution" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="Chart1">Scenarios!$M$23</definedName>
+    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -61,33 +67,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Skipped</t>
   </si>
   <si>
     <t>Feature 1</t>
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>Feature 2</t>
-  </si>
-  <si>
-    <t>Feature 3</t>
-  </si>
-  <si>
-    <t>Feature 4</t>
-  </si>
-  <si>
-    <t>Feature 5</t>
   </si>
   <si>
     <t>Title</t>
@@ -166,33 +154,6 @@
   </si>
   <si>
     <t>Scenario 1</t>
-  </si>
-  <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>Scenario 3</t>
-  </si>
-  <si>
-    <t>Scenario 4</t>
-  </si>
-  <si>
-    <t>Scenario 5</t>
-  </si>
-  <si>
-    <t>Scenario 6</t>
-  </si>
-  <si>
-    <t>Scenario 7</t>
-  </si>
-  <si>
-    <t>Scenario 8</t>
-  </si>
-  <si>
-    <t>Scenario 9</t>
-  </si>
-  <si>
-    <t>Scenario 10</t>
   </si>
   <si>
     <t>tag1</t>
@@ -294,29 +255,17 @@
     <t>FAILED &amp; SKIPPED SCENARIOS</t>
   </si>
   <si>
-    <t>NAME</t>
+    <t>TAG NAME</t>
   </si>
   <si>
-    <t>tag2</t>
-  </si>
-  <si>
-    <t>tag3</t>
-  </si>
-  <si>
-    <t>tag4</t>
-  </si>
-  <si>
-    <t>tag5</t>
+    <t>tag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m:s.0"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +311,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -420,40 +378,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:s.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:s.0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF51FF21"/>
       <color rgb="FF000099"/>
-      <color rgb="FF51FF21"/>
       <color rgb="FF27F959"/>
     </mruColors>
   </colors>
@@ -614,7 +579,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -690,6 +657,228 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.33104174160971E-2"/>
+          <c:y val="0.17399131020088512"/>
+          <c:w val="0.93298799578986635"/>
+          <c:h val="0.80271606659122552"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-69CD-4D95-9BCF-D378A2484937}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-69CD-4D95-9BCF-D378A2484937}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-69CD-4D95-9BCF-D378A2484937}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Features Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Features Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Features Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-69CD-4D95-9BCF-D378A2484937}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -836,7 +1025,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1058,7 +1249,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1187,6 +1380,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1236,6 +1430,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1309,6 +1504,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1382,6 +1578,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1478,6 +1675,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -1557,6 +1755,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1606,6 +1805,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1679,6 +1879,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1752,6 +1953,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1843,6 +2045,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1905,12 +2108,12 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenario \ Step Count</a:t>
+              <a:t>Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1970,83 +2173,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$30</c:f>
+              <c:f>Scenarios!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scenario 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scenario 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scenario 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Scenario 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Scenario 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Scenario 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$21:$H$30</c:f>
+              <c:f>Scenarios!$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
+              <c16:uniqueId val="{00000000-C270-4FB3-8298-7BD9F9C395E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -2091,71 +2246,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$30</c:f>
+              <c:f>Scenarios!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scenario 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scenario 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scenario 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Scenario 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Scenario 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Scenario 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$21:$J$30</c:f>
+              <c:f>Scenarios!$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
+              <c16:uniqueId val="{00000001-C270-4FB3-8298-7BD9F9C395E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -2177,6 +2296,16 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C270-4FB3-8298-7BD9F9C395E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2200,60 +2329,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$30</c:f>
+              <c:f>Scenarios!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scenario 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scenario 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scenario 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Scenario 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Scenario 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Scenario 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$21:$I$30</c:f>
+              <c:f>Scenarios!$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
+              <c16:uniqueId val="{00000003-C270-4FB3-8298-7BD9F9C395E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2293,12 +2392,34 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:crossAx val="62860288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2346,6 +2467,233 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2858134693485639E-2"/>
+          <c:y val="0.17364592842131704"/>
+          <c:w val="0.96715927750410513"/>
+          <c:h val="0.78524645049290098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-96B9-4095-8F86-417028E30CA0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-96B9-4095-8F86-417028E30CA0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-96B9-4095-8F86-417028E30CA0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-96B9-4095-8F86-417028E30CA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2361,12 +2709,11 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Tag \ Scenario Count</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2416,58 +2763,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$25</c:f>
+              <c:f>Tags!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tag1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tag2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tag3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>tag4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tag5</c:v>
+                  <c:v>tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$21:$D$25</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFA8-44C4-80CD-B37A185A049B}"/>
+              <c16:uniqueId val="{00000000-5066-401C-8DCA-91A199F8F9FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2511,58 +2836,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$25</c:f>
+              <c:f>Tags!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tag1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tag2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tag3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>tag4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tag5</c:v>
+                  <c:v>tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$21:$F$25</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFA8-44C4-80CD-B37A185A049B}"/>
+              <c16:uniqueId val="{00000001-5066-401C-8DCA-91A199F8F9FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2606,55 +2909,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$25</c:f>
+              <c:f>Tags!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tag1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tag2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tag3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>tag4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tag5</c:v>
+                  <c:v>tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$21:$E$25</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFA8-44C4-80CD-B37A185A049B}"/>
+              <c16:uniqueId val="{00000002-5066-401C-8DCA-91A199F8F9FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2694,12 +2978,34 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:crossAx val="62946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2734,7 +3040,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2764,7 +3070,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Feature \ Scenario Count</a:t>
+              <a:t>Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2824,51 +3130,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$25</c:f>
+              <c:f>Features!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Feature 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feature 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feature 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Feature 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feature 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$21:$F$25</c:f>
+              <c:f>Features!$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
+              <c16:uniqueId val="{00000000-079B-4EB3-B7E1-AA8E780D524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2918,37 +3203,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$25</c:f>
+              <c:f>Features!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Feature 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feature 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feature 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Feature 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feature 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$21:$H$25</c:f>
+              <c:f>Features!$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2956,7 +3226,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
+              <c16:uniqueId val="{00000001-079B-4EB3-B7E1-AA8E780D524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3006,34 +3276,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$25</c:f>
+              <c:f>Features!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Feature 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feature 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feature 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Feature 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feature 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$21:$G$25</c:f>
+              <c:f>Features!$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="2">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3041,7 +3299,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
+              <c16:uniqueId val="{00000002-079B-4EB3-B7E1-AA8E780D524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3082,12 +3340,34 @@
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:crossAx val="62483072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -5142,20 +5422,22 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5169,10 +5451,505 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1800224</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29019</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="FeatureDough"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="180975"/>
+          <a:ext cx="1304925" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PASSED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$2">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="200025"/>
+          <a:ext cx="638176" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{1EE62539-4503-47B1-9014-AE0EB5904036}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>20</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="394759"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{541347F2-B924-4EBD-9016-7D70B52E0A34}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>7</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="570444"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A47243DB-DD84-4781-B539-D3F128684A26}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>3</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28095</cdr:x>
+      <cdr:y>0.38583</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75714</cdr:x>
+      <cdr:y>0.76772</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 21"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="561975" y="933452"/>
+          <a:ext cx="952500" cy="923924"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:scene3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>30</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -5182,8 +5959,8 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
@@ -5209,25 +5986,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5241,59 +6020,525 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190223</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="FeatureDough"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="190501"/>
+          <a:ext cx="1257299" cy="685799"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PASSED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$2">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="219075"/>
+          <a:ext cx="561975" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{90FBC278-7B88-49A1-868B-24AA4635DA5C}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>5</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="394758"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{9D8330AA-D40D-4308-B052-A77CB19D543A}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>3</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94694</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="579969"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{DFB13DCE-6084-4E13-A2F5-731AC765DAB5}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B20:J30" totalsRowShown="0">
-  <autoFilter ref="B20:J30"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="SCENARIO NAME"/>
-    <tableColumn id="2" name="SCENARIO STATUS"/>
-    <tableColumn id="3" name="DURATION" dataDxfId="1"/>
-    <tableColumn id="4" name="FEATURE NAME"/>
-    <tableColumn id="5" name="FEATURE STATUS"/>
-    <tableColumn id="6" name="STEP TOTAL"/>
-    <tableColumn id="7" name="STEP PASS"/>
-    <tableColumn id="8" name="STEP FAIL"/>
-    <tableColumn id="9" name="STEP SKIP"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28095</cdr:x>
+      <cdr:y>0.38583</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75714</cdr:x>
+      <cdr:y>0.76772</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 21"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="602111" y="1142827"/>
+          <a:ext cx="1020535" cy="1131157"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:scene3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>10</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B20:F25" totalsRowShown="0">
-  <autoFilter ref="B20:F25"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="NAME"/>
-    <tableColumn id="2" name="SCENARIO TOTAL"/>
-    <tableColumn id="3" name="SCENARIO PASS"/>
-    <tableColumn id="4" name="SCENARIO FAIL"/>
-    <tableColumn id="5" name="SCENARIO SKIP"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B20:L25" totalsRowShown="0">
-  <autoFilter ref="B20:L25"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="FEATURE NAME"/>
-    <tableColumn id="2" name="STATUS"/>
-    <tableColumn id="3" name="DURATION" dataDxfId="0"/>
-    <tableColumn id="4" name="SCENARIO TOTAL"/>
-    <tableColumn id="5" name="SCENARIO PASS"/>
-    <tableColumn id="6" name="SCENARIO FAIL"/>
-    <tableColumn id="7" name="SCENARIO SKIP"/>
-    <tableColumn id="8" name="STEP TOTAL"/>
-    <tableColumn id="9" name="STEP PASS"/>
-    <tableColumn id="10" name="STEP FAIL"/>
-    <tableColumn id="11" name="STEP SKIP"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Scenarios"/>
+      <sheetName val="Tags"/>
+      <sheetName val="Features"/>
+      <sheetName val="Execution"/>
+      <sheetName val="DB Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5585,7 +6830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B37:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -5601,24 +6846,24 @@
   </cols>
   <sheetData>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
-        <v>76</v>
+      <c r="B37" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="8" t="s">
+      <c r="B38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5634,452 +6879,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B20:J30"/>
+  <dimension ref="B20:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="B20" sqref="B20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" t="s">
-        <v>54</v>
+      <c r="D20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
-        <v>5.9027777777777778E-4</v>
-      </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1.7754629629629631E-3</v>
-      </c>
-      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
         <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7.1527777777777779E-4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2.3148148148148146E-4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>7</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2.2604166666666667E-3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>5.8449074074074078E-4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>3.1597222222222222E-3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6">
-        <v>7.1527777777777779E-4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6">
-        <v>6.4120370370370373E-4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2.2604166666666667E-3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:F25"/>
+  <dimension ref="B20:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F25"/>
+      <selection activeCell="C24" sqref="C24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B18:L25"/>
+  <dimension ref="B18:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:L25"/>
+      <selection activeCell="B20" sqref="B20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -6087,174 +7062,76 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" t="s">
-        <v>54</v>
+      <c r="B20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
-        <v>5.8449074074074078E-4</v>
-      </c>
       <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="I21">
-        <v>8</v>
-      </c>
-      <c r="J21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5.7870370370370378E-4</v>
-      </c>
-      <c r="E22">
+      <c r="L21">
         <v>3</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>12</v>
-      </c>
-      <c r="J23">
-        <v>8</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1.7939814814814815E-3</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>5.7870370370370378E-4</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -6275,104 +7152,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
@@ -6387,7 +7264,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19:T19"/>
     </sheetView>
   </sheetViews>
@@ -6418,30 +7295,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -6449,25 +7326,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -6475,25 +7352,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -6501,27 +7378,27 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <f>SUM(F2:F4)</f>
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <f>SUM(H2:H4)</f>
@@ -6530,70 +7407,70 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>70</v>
+      <c r="A19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6605,10 +7482,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -6620,10 +7497,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Q20" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="R20">
         <v>1</v>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="15" r:id="rId1"/>
@@ -803,7 +803,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -900,10 +902,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2840722495894911E-2"/>
-          <c:y val="0.18503978341290014"/>
-          <c:w val="0.96715927750410513"/>
-          <c:h val="0.78524645049290098"/>
+          <c:x val="2.750740157480315E-2"/>
+          <c:y val="0.18969415026559408"/>
+          <c:w val="0.97249259842519664"/>
+          <c:h val="0.77170506728160959"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -2118,6 +2120,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2167,6 +2170,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2240,6 +2244,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2323,6 +2328,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2414,6 +2420,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2599,7 +2606,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3075,6 +3084,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3124,6 +3134,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3197,6 +3208,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3270,6 +3282,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3362,6 +3375,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3925,10 +3939,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="247651" y="266699"/>
-              <a:ext cx="3648074" cy="2752726"/>
-              <a:chOff x="247651" y="266699"/>
-              <a:chExt cx="3648074" cy="2752726"/>
+              <a:off x="247650" y="266699"/>
+              <a:ext cx="3648075" cy="2752726"/>
+              <a:chOff x="247650" y="266699"/>
+              <a:chExt cx="3648075" cy="2752726"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -3938,10 +3952,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="247651" y="696672"/>
-                <a:ext cx="1257299" cy="818167"/>
-                <a:chOff x="247651" y="696672"/>
-                <a:chExt cx="1257299" cy="818167"/>
+                <a:off x="247650" y="696671"/>
+                <a:ext cx="1280160" cy="849795"/>
+                <a:chOff x="247650" y="696671"/>
+                <a:chExt cx="1280160" cy="849795"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -3951,8 +3965,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="247651" y="696672"/>
-                  <a:ext cx="1257299" cy="818167"/>
+                  <a:off x="247650" y="696671"/>
+                  <a:ext cx="1280160" cy="849795"/>
                 </a:xfrm>
                 <a:prstGeom prst="roundRect">
                   <a:avLst/>
@@ -4270,7 +4284,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4143375" y="696671"/>
-              <a:ext cx="1304925" cy="818167"/>
+              <a:ext cx="1280160" cy="849796"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -4517,8 +4531,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="5429250" y="257848"/>
-            <a:ext cx="2381250" cy="2788806"/>
+            <a:off x="5410200" y="257848"/>
+            <a:ext cx="2400300" cy="2788806"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4589,7 +4603,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8067676" y="696672"/>
-              <a:ext cx="1323974" cy="888983"/>
+              <a:ext cx="1280160" cy="849796"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -4836,8 +4850,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="9410699" y="45400"/>
-            <a:ext cx="2333625" cy="3089361"/>
+            <a:off x="9334500" y="45400"/>
+            <a:ext cx="2409825" cy="3089361"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5488,13 +5502,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:colOff>1508760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5503,8 +5517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="180975"/>
-          <a:ext cx="1304925" cy="676275"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6055,15 +6069,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:colOff>1451609</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6072,8 +6086,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="190501"/>
-          <a:ext cx="1257299" cy="685799"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6830,8 +6844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B37:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7044,8 +7058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B18:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:L20"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="15" r:id="rId1"/>
@@ -4101,7 +4101,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="933449" y="1093925"/>
+                  <a:off x="933449" y="1102777"/>
                   <a:ext cx="552451" cy="247651"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -4155,7 +4155,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="914400" y="1257199"/>
+                  <a:off x="914400" y="1274903"/>
                   <a:ext cx="581026" cy="257174"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -4420,7 +4420,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800599" y="1085074"/>
+              <a:off x="4800599" y="1102778"/>
               <a:ext cx="657225" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4475,7 +4475,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="1248346"/>
+              <a:off x="4800600" y="1274902"/>
               <a:ext cx="647700" cy="257174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4684,7 +4684,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8743950" y="957211"/>
+              <a:off x="8743950" y="930655"/>
               <a:ext cx="638175" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4739,7 +4739,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8715375" y="1129334"/>
+              <a:off x="8715375" y="1111630"/>
               <a:ext cx="676275" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4794,7 +4794,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8724899" y="1301458"/>
+              <a:off x="8724899" y="1283754"/>
               <a:ext cx="657225" cy="257174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5436,15 +5436,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:colOff>1828801</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>257176</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5588,13 +5588,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85503</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$2">
       <xdr:nvSpPr>
@@ -5603,7 +5603,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="200025"/>
+          <a:off x="971550" y="219075"/>
           <a:ext cx="638176" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5658,13 +5658,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>866775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13759</xdr:rowOff>
+      <xdr:rowOff>32809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1504950</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>89737</xdr:rowOff>
+      <xdr:rowOff>108787</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$3">
       <xdr:nvSpPr>
@@ -5673,7 +5673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="394759"/>
+          <a:off x="962025" y="413809"/>
           <a:ext cx="638175" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5727,14 +5727,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866776</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>189444</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85169</xdr:rowOff>
+      <xdr:rowOff>104219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$4">
       <xdr:nvSpPr>
@@ -5743,7 +5743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962026" y="570444"/>
+          <a:off x="962026" y="589494"/>
           <a:ext cx="647700" cy="276725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5974,9 +5974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6007,13 +6007,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6227,13 +6227,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847724</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13758</xdr:rowOff>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>89736</xdr:rowOff>
+      <xdr:rowOff>118311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$3">
       <xdr:nvSpPr>
@@ -6242,7 +6242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981074" y="394758"/>
+          <a:off x="981074" y="423333"/>
           <a:ext cx="552451" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6297,13 +6297,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>8469</xdr:rowOff>
+      <xdr:rowOff>37044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1419226</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>94694</xdr:rowOff>
+      <xdr:rowOff>123269</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$4">
       <xdr:nvSpPr>
@@ -6312,7 +6312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="579969"/>
+          <a:off x="971550" y="608544"/>
           <a:ext cx="581026" cy="276725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6544,12 +6544,12 @@
       <sheetName val="DB Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6844,7 +6844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B37:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -6896,7 +6896,7 @@
   <dimension ref="B20:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:J20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6978,7 +6978,7 @@
   <dimension ref="B20:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:E24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7058,8 +7058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B18:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7278,7 +7278,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P19" sqref="P19:T19"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -803,9 +803,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2120,7 +2118,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2170,7 +2167,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2244,7 +2240,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2328,7 +2323,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2420,7 +2414,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2606,9 +2599,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3084,7 +3075,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3134,7 +3124,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3208,7 +3197,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3282,7 +3270,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3375,7 +3362,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Big Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,19 +14,21 @@
   <sheets>
     <sheet name="Dashboard" sheetId="15" r:id="rId1"/>
     <sheet name="Scenarios" sheetId="17" r:id="rId2"/>
-    <sheet name="Tags" sheetId="18" r:id="rId3"/>
+    <sheet name="Tags" sheetId="20" r:id="rId3"/>
     <sheet name="Features" sheetId="19" r:id="rId4"/>
     <sheet name="Execution" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="2">[2]Scenarios!#REF!</definedName>
     <definedName name="Chart1">#REF!</definedName>
+    <definedName name="Chart10">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -67,13 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Feature 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>Duration</t>
   </si>
@@ -135,12 +131,6 @@
     <t>FEATURE STATUS</t>
   </si>
   <si>
-    <t>Nov 18 2022, 3:30 PM</t>
-  </si>
-  <si>
-    <t>Nov 18 2022, 3:32 PM</t>
-  </si>
-  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -153,16 +143,10 @@
     <t>SCENARIO STATUS</t>
   </si>
   <si>
-    <t>Scenario 1</t>
-  </si>
-  <si>
     <t>tag1</t>
   </si>
   <si>
     <t>Excel Extent Report</t>
-  </si>
-  <si>
-    <t>2 m 37 s</t>
   </si>
   <si>
     <t>SCENARIO PASS</t>
@@ -255,6 +239,30 @@
     <t>FAILED &amp; SKIPPED SCENARIOS</t>
   </si>
   <si>
+    <t>Jan 06, 2023 2:45:21 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:19 PM</t>
+  </si>
+  <si>
+    <t>0.249 s</t>
+  </si>
+  <si>
+    <t>Feature Fail</t>
+  </si>
+  <si>
+    <t>Scenario Fail</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.016 s</t>
+  </si>
+  <si>
+    <t>0.027 s</t>
+  </si>
+  <si>
     <t>TAG NAME</t>
   </si>
   <si>
@@ -265,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +328,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +370,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -379,6 +420,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -393,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -404,10 +460,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -454,8 +601,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2840722495894911E-2"/>
-          <c:y val="0.18503978341290014"/>
+          <c:x val="5.0903995566291271E-2"/>
+          <c:y val="0.19400029633392601"/>
           <c:w val="0.96715927750410513"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
@@ -608,13 +755,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,7 +950,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -830,13 +979,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,10 +1049,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.750740157480315E-2"/>
-          <c:y val="0.18969415026559408"/>
-          <c:w val="0.97249259842519664"/>
-          <c:h val="0.77170506728160959"/>
+          <c:x val="6.5631179664185815E-2"/>
+          <c:y val="5.276146684702563E-2"/>
+          <c:w val="0.91171844101679089"/>
+          <c:h val="0.92394979974548064"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1012,7 +1161,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1054,13 +1203,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,10 +1273,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.1956398307354442E-2"/>
-          <c:y val="0.2285106433959492"/>
-          <c:w val="0.97260142482189726"/>
-          <c:h val="0.72141920882644162"/>
+          <c:x val="3.8133264002377064E-2"/>
+          <c:y val="0.18370769611227392"/>
+          <c:w val="0.92778149193614945"/>
+          <c:h val="0.79310381321924939"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1278,13 +1427,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,23 +1586,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$19</c:f>
+              <c:f>'DB Data'!$H$20:$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature Name</c:v>
+                  <c:v>Feature Fail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$J$20</c:f>
+              <c:f>'DB Data'!$J$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,18 +1660,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$19</c:f>
+              <c:f>'DB Data'!$H$20:$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature Name</c:v>
+                  <c:v>Feature Fail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$L$20</c:f>
+              <c:f>'DB Data'!$L$20:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1585,23 +1734,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$19</c:f>
+              <c:f>'DB Data'!$H$20:$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature Name</c:v>
+                  <c:v>Feature Fail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$K$20</c:f>
+              <c:f>'DB Data'!$K$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,23 +1961,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario</c:v>
+                  <c:v>Scenario Fail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20</c:f>
+              <c:f>'DB Data'!$R$20:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,18 +2035,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario</c:v>
+                  <c:v>Scenario Fail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20</c:f>
+              <c:f>'DB Data'!$T$20:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1960,23 +2109,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario</c:v>
+                  <c:v>Scenario Fail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20</c:f>
+              <c:f>'DB Data'!$S$20:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2118,6 +2267,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2167,29 +2317,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21</c:f>
+              <c:f>Scenarios!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>Scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$21</c:f>
+              <c:f>Scenarios!$H$21:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,24 +2397,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21</c:f>
+              <c:f>Scenarios!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>Scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$21</c:f>
+              <c:f>Scenarios!$J$21:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2329,24 +2477,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21</c:f>
+              <c:f>Scenarios!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>Scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$21</c:f>
+              <c:f>Scenarios!$I$21:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2414,6 +2559,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2599,7 +2745,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2626,13 +2774,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2714,6 +2862,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2763,6 +2912,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2792,7 +2942,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5066-401C-8DCA-91A199F8F9FB}"/>
+              <c16:uniqueId val="{00000000-6A32-427E-937B-79D02676AA4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2836,6 +2986,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2865,7 +3016,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5066-401C-8DCA-91A199F8F9FB}"/>
+              <c16:uniqueId val="{00000001-6A32-427E-937B-79D02676AA4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2909,6 +3060,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2938,7 +3090,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5066-401C-8DCA-91A199F8F9FB}"/>
+              <c16:uniqueId val="{00000002-6A32-427E-937B-79D02676AA4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3000,6 +3152,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3075,6 +3228,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3124,29 +3278,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21</c:f>
+              <c:f>Features!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$21</c:f>
+              <c:f>Features!$F$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,24 +3358,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21</c:f>
+              <c:f>Features!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$21</c:f>
+              <c:f>Features!$H$21:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3276,24 +3428,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21</c:f>
+              <c:f>Features!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$21</c:f>
+              <c:f>Features!$G$21:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3362,6 +3511,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3407,16 +3557,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2352675</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1556385</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3425,8 +3575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="104775"/>
-          <a:ext cx="3840480" cy="457200"/>
+          <a:off x="171450" y="76200"/>
+          <a:ext cx="3566160" cy="777240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3434,8 +3584,10 @@
         <a:solidFill>
           <a:schemeClr val="tx2"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3455,7 +3607,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -3482,16 +3634,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2619374</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80009</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3500,8 +3652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200024" y="104775"/>
-          <a:ext cx="3802381" cy="457200"/>
+          <a:off x="8277224" y="76200"/>
+          <a:ext cx="3566160" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3509,8 +3661,10 @@
         <a:solidFill>
           <a:schemeClr val="tx2"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3557,16 +3711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2268855</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3575,8 +3729,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="104775"/>
-          <a:ext cx="3840480" cy="457200"/>
+          <a:off x="8277225" y="504825"/>
+          <a:ext cx="3566160" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3584,8 +3738,10 @@
         <a:solidFill>
           <a:schemeClr val="tx2"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3632,26 +3788,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3267075</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942974</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="&#10;'DB Data'!$B$6">
+    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="104775"/>
-          <a:ext cx="2914650" cy="447675"/>
+          <a:off x="1076324" y="104776"/>
+          <a:ext cx="2638426" cy="733424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3681,16 +3837,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="2600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2 m 37 s</a:t>
+            <a:t>0.249 s</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="2000">
+          <a:endParaRPr lang="en-US" sz="2600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -3702,26 +3858,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3600450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="&#10;'DB Data'!$B$4">
+    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190625" y="104774"/>
-          <a:ext cx="2743199" cy="428625"/>
+          <a:off x="9258300" y="85725"/>
+          <a:ext cx="2562225" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3757,7 +3913,7 @@
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>Nov 18 2022, 3:30 PM</a:t>
+            <a:t>Jan 06, 2023 2:45:19 PM</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
@@ -3771,26 +3927,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3609975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="&#10;'DB Data'!$B$5">
+    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="114299"/>
-          <a:ext cx="2819400" cy="428625"/>
+          <a:off x="9267825" y="523875"/>
+          <a:ext cx="2552700" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3826,7 +3982,7 @@
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>Nov 18 2022, 3:32 PM</a:t>
+            <a:t>Jan 06, 2023 2:45:19 PM</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
@@ -3841,15 +3997,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>99059</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>132098</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3858,10 +4014,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="38100"/>
-          <a:ext cx="11649076" cy="3324225"/>
-          <a:chOff x="171449" y="45400"/>
-          <a:chExt cx="11649076" cy="3089361"/>
+          <a:off x="171449" y="57150"/>
+          <a:ext cx="11690985" cy="3313448"/>
+          <a:chOff x="152399" y="63104"/>
+          <a:chExt cx="11690985" cy="3079346"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3871,10 +4027,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="266699"/>
-            <a:ext cx="3800475" cy="2788133"/>
-            <a:chOff x="171449" y="266699"/>
-            <a:chExt cx="3800475" cy="2788133"/>
+            <a:off x="152399" y="496852"/>
+            <a:ext cx="3566160" cy="2645598"/>
+            <a:chOff x="152399" y="496852"/>
+            <a:chExt cx="3566160" cy="2645598"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -3884,8 +4040,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="616433"/>
-              <a:ext cx="3800475" cy="2438399"/>
+              <a:off x="152399" y="881994"/>
+              <a:ext cx="3566160" cy="2260456"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3925,10 +4081,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="247650" y="266699"/>
-              <a:ext cx="3648075" cy="2752726"/>
-              <a:chOff x="247650" y="266699"/>
-              <a:chExt cx="3648075" cy="2752726"/>
+              <a:off x="190500" y="496852"/>
+              <a:ext cx="3495675" cy="2634366"/>
+              <a:chOff x="190500" y="496852"/>
+              <a:chExt cx="3495675" cy="2634366"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -3938,10 +4094,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="247650" y="696671"/>
-                <a:ext cx="1280160" cy="849795"/>
-                <a:chOff x="247650" y="696671"/>
-                <a:chExt cx="1280160" cy="849795"/>
+                <a:off x="190500" y="935675"/>
+                <a:ext cx="1190625" cy="807306"/>
+                <a:chOff x="190500" y="935675"/>
+                <a:chExt cx="1190625" cy="807306"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -3951,8 +4107,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="247650" y="696671"/>
-                  <a:ext cx="1280160" cy="849795"/>
+                  <a:off x="190500" y="935675"/>
+                  <a:ext cx="1188720" cy="807306"/>
                 </a:xfrm>
                 <a:prstGeom prst="roundRect">
                   <a:avLst/>
@@ -3978,12 +4134,12 @@
                 </a:fontRef>
               </xdr:style>
               <xdr:txBody>
-                <a:bodyPr rtlCol="0" anchor="ctr"/>
+                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr algn="ctr"/>
                   <a:r>
-                    <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+                    <a:rPr lang="en-US" sz="1300" b="1" u="none">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -3994,7 +4150,7 @@
                 <a:p>
                   <a:pPr algn="l"/>
                   <a:r>
-                    <a:rPr lang="en-US" sz="1200">
+                    <a:rPr lang="en-US" sz="1100">
                       <a:solidFill>
                         <a:srgbClr val="51FF21"/>
                       </a:solidFill>
@@ -4005,7 +4161,7 @@
                 <a:p>
                   <a:pPr algn="l"/>
                   <a:r>
-                    <a:rPr lang="en-US" sz="1200">
+                    <a:rPr lang="en-US" sz="1100">
                       <a:solidFill>
                         <a:srgbClr val="FF0000"/>
                       </a:solidFill>
@@ -4016,7 +4172,7 @@
                 <a:p>
                   <a:pPr algn="l"/>
                   <a:r>
-                    <a:rPr lang="en-US" sz="1200">
+                    <a:rPr lang="en-US" sz="1100">
                       <a:solidFill>
                         <a:srgbClr val="FFFF00"/>
                       </a:solidFill>
@@ -4033,7 +4189,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="923925" y="930655"/>
+                  <a:off x="819150" y="1134251"/>
                   <a:ext cx="561975" cy="247651"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -4064,15 +4220,15 @@
                 <a:p>
                   <a:pPr algn="ctr"/>
                   <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0">
+                    <a:rPr lang="en-US" sz="1100" b="0">
                       <a:solidFill>
                         <a:srgbClr val="27F959"/>
                       </a:solidFill>
                     </a:rPr>
                     <a:pPr algn="ctr"/>
-                    <a:t>5</a:t>
+                    <a:t>1</a:t>
                   </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:endParaRPr lang="en-US" sz="1100" b="0">
                     <a:solidFill>
                       <a:srgbClr val="27F959"/>
                     </a:solidFill>
@@ -4087,8 +4243,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="933449" y="1102777"/>
-                  <a:ext cx="552451" cy="247651"/>
+                  <a:off x="819149" y="1297521"/>
+                  <a:ext cx="561975" cy="247651"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -4118,15 +4274,15 @@
                 <a:p>
                   <a:pPr algn="ctr"/>
                   <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0">
+                    <a:rPr lang="en-US" sz="1100" b="0">
                       <a:solidFill>
                         <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                     </a:rPr>
                     <a:pPr algn="ctr"/>
-                    <a:t>3</a:t>
+                    <a:t>2</a:t>
                   </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:endParaRPr lang="en-US" sz="1100" b="0">
                     <a:solidFill>
                       <a:srgbClr val="FF0000"/>
                     </a:solidFill>
@@ -4141,8 +4297,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="914400" y="1274903"/>
-                  <a:ext cx="581026" cy="257174"/>
+                  <a:off x="828675" y="1460795"/>
+                  <a:ext cx="542925" cy="257174"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -4172,15 +4328,15 @@
                 <a:p>
                   <a:pPr algn="ctr"/>
                   <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0">
+                    <a:rPr lang="en-US" sz="1100" b="0">
                       <a:solidFill>
                         <a:srgbClr val="FFFF00"/>
                       </a:solidFill>
                     </a:rPr>
                     <a:pPr algn="ctr"/>
-                    <a:t>2</a:t>
+                    <a:t>1</a:t>
                   </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:endParaRPr lang="en-US" sz="1100" b="0">
                     <a:solidFill>
                       <a:srgbClr val="FFFF00"/>
                     </a:solidFill>
@@ -4197,8 +4353,8 @@
               </xdr:cNvGraphicFramePr>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
-              <a:off x="1504950" y="266699"/>
-              <a:ext cx="2390775" cy="2752726"/>
+              <a:off x="1295400" y="496852"/>
+              <a:ext cx="2390775" cy="2634366"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4215,10 +4371,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="4067174" y="257848"/>
-            <a:ext cx="3819525" cy="2797246"/>
-            <a:chOff x="4067174" y="257848"/>
-            <a:chExt cx="3819525" cy="2797246"/>
+            <a:off x="3790948" y="63104"/>
+            <a:ext cx="4394837" cy="3076966"/>
+            <a:chOff x="3790948" y="63104"/>
+            <a:chExt cx="4394837" cy="3076966"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -4228,8 +4384,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4067174" y="620782"/>
-              <a:ext cx="3819525" cy="2434312"/>
+              <a:off x="3790948" y="80806"/>
+              <a:ext cx="4389120" cy="3059264"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4269,7 +4425,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4143375" y="696671"/>
+              <a:off x="3857625" y="156698"/>
               <a:ext cx="1280160" cy="849796"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -4296,12 +4452,12 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+                <a:rPr lang="en-US" sz="1600" b="1" u="none">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -4351,8 +4507,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="921802"/>
-              <a:ext cx="647700" cy="247651"/>
+              <a:off x="4514849" y="355274"/>
+              <a:ext cx="619125" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4382,14 +4538,14 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:srgbClr val="51FF21"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>20</a:t>
+                <a:t>2</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4406,8 +4562,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800599" y="1102778"/>
-              <a:ext cx="657225" cy="247651"/>
+              <a:off x="4524375" y="536249"/>
+              <a:ext cx="600074" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4437,14 +4593,14 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>7</a:t>
+                <a:t>2</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4461,8 +4617,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="1274902"/>
-              <a:ext cx="647700" cy="257174"/>
+              <a:off x="4524374" y="708373"/>
+              <a:ext cx="600075" cy="257174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4492,14 +4648,14 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:srgbClr val="FFFF00"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>3</a:t>
+                <a:t>2</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4517,8 +4673,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="5410200" y="257848"/>
-            <a:ext cx="2400300" cy="2788806"/>
+            <a:off x="4848225" y="63104"/>
+            <a:ext cx="3337560" cy="3016774"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4534,10 +4690,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="7991475" y="45400"/>
-            <a:ext cx="3829050" cy="3089361"/>
-            <a:chOff x="7991475" y="45400"/>
-            <a:chExt cx="3829050" cy="3089361"/>
+            <a:off x="8258175" y="505706"/>
+            <a:ext cx="3585209" cy="2636071"/>
+            <a:chOff x="8258175" y="505706"/>
+            <a:chExt cx="3585209" cy="2636071"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -4547,8 +4703,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7991475" y="624613"/>
-              <a:ext cx="3829050" cy="2430480"/>
+              <a:off x="8258175" y="881321"/>
+              <a:ext cx="3566160" cy="2260456"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4577,7 +4733,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>/</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -4588,8 +4747,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8067676" y="696672"/>
-              <a:ext cx="1280160" cy="849796"/>
+              <a:off x="8296276" y="935676"/>
+              <a:ext cx="1188720" cy="807306"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -4615,12 +4774,12 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+                <a:rPr lang="en-US" sz="1300" b="1" u="none">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -4631,7 +4790,7 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200">
+                <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
                     <a:srgbClr val="51FF21"/>
                   </a:solidFill>
@@ -4642,7 +4801,7 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200">
+                <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
@@ -4653,7 +4812,7 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200">
+                <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
                     <a:srgbClr val="FFFF00"/>
                   </a:solidFill>
@@ -4670,8 +4829,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8743950" y="930655"/>
-              <a:ext cx="638175" cy="247651"/>
+              <a:off x="8953500" y="1134252"/>
+              <a:ext cx="523876" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4708,7 +4867,7 @@
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>60</a:t>
+                <a:t>6</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4725,8 +4884,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8715375" y="1111630"/>
-              <a:ext cx="676275" cy="247651"/>
+              <a:off x="8943975" y="1306375"/>
+              <a:ext cx="542925" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4763,7 +4922,7 @@
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>15</a:t>
+                <a:t>1</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4780,8 +4939,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8724899" y="1283754"/>
-              <a:ext cx="657225" cy="257174"/>
+              <a:off x="8934450" y="1469647"/>
+              <a:ext cx="552450" cy="239936"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4818,7 +4977,7 @@
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>10</a:t>
+                <a:t>1</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4836,8 +4995,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="9334500" y="45400"/>
-            <a:ext cx="2409825" cy="3089361"/>
+            <a:off x="9420224" y="505706"/>
+            <a:ext cx="2423160" cy="2634366"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4920,12 +5079,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.33068</cdr:x>
+      <cdr:y>0.42675</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70518</cdr:x>
+      <cdr:y>0.74597</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$D$5">
       <cdr:nvSpPr>
@@ -4934,8 +5093,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="790575" y="1209677"/>
+          <a:ext cx="895350" cy="904875"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5069,7 +5228,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>10</a:t>
+            <a:t>4</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -5087,12 +5246,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.34247</cdr:x>
+      <cdr:y>0.3257</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70491</cdr:x>
+      <cdr:y>0.69836</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$F$5">
       <cdr:nvSpPr>
@@ -5101,8 +5260,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="1143000" y="1057275"/>
+          <a:ext cx="1209674" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5229,16 +5388,16 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30</a:t>
+            <a:t>6</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5254,12 +5413,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.31447</cdr:x>
+      <cdr:y>0.42003</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.69182</cdr:x>
+      <cdr:y>0.73925</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$H$5">
       <cdr:nvSpPr>
@@ -5268,8 +5427,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="572674" y="1058409"/>
-          <a:ext cx="970642" cy="1047601"/>
+          <a:off x="762001" y="1190625"/>
+          <a:ext cx="914400" cy="904875"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5403,7 +5562,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>85</a:t>
+            <a:t>8</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -5627,7 +5786,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>20</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -5697,7 +5856,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>7</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -5767,7 +5926,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -5935,7 +6094,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30</a:t>
+            <a:t>6</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -6196,7 +6355,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>5</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6266,7 +6425,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6336,7 +6495,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6504,7 +6663,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>10</a:t>
+            <a:t>4</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -6519,6 +6678,29 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Scenarios"/>
+      <sheetName val="Tags"/>
+      <sheetName val="Features"/>
+      <sheetName val="Execution"/>
+      <sheetName val="DB Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -6831,7 +7013,7 @@
   <dimension ref="B37:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6847,23 +7029,23 @@
   <sheetData>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="11"/>
+      <c r="B38" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="42"/>
       <c r="D38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="E38" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="42"/>
       <c r="G38" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6882,7 +7064,8 @@
   <dimension ref="B20:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6899,58 +7082,57 @@
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
+      <c r="B21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="25">
         <v>3</v>
       </c>
+      <c r="H21" s="26">
+        <v>3</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6979,25 +7161,25 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>35</v>
+      <c r="B20" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -7013,20 +7195,20 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="9" t="s">
-        <v>27</v>
+      <c r="B24" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="40" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7045,7 +7227,8 @@
   <dimension ref="B18:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7063,70 +7246,65 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="D20" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="32">
+        <v>2</v>
+      </c>
+      <c r="F21" s="33">
+        <v>2</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36">
         <v>6</v>
       </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
+      <c r="J21" s="37">
         <v>6</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7152,104 +7330,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
@@ -7262,10 +7440,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:T19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7295,220 +7473,220 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <f>SUM(F2:F4)</f>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <f>SUM(H2:H4)</f>
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="T19" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J20">
+      <c r="I20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="12">
+        <v>3</v>
+      </c>
+      <c r="K20" s="13">
+        <v>2</v>
+      </c>
+      <c r="L20" s="14">
         <v>1</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="P20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Q20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
+      <c r="Q20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="17">
+        <v>3</v>
+      </c>
+      <c r="S20" s="18">
+        <v>2</v>
+      </c>
+      <c r="T20" s="19">
         <v>1</v>
       </c>
     </row>
@@ -7518,14 +7696,8 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -16,12 +16,11 @@
     <sheet name="Scenarios" sheetId="17" r:id="rId2"/>
     <sheet name="Tags" sheetId="20" r:id="rId3"/>
     <sheet name="Features" sheetId="19" r:id="rId4"/>
-    <sheet name="Execution" sheetId="12" r:id="rId5"/>
-    <sheet name="DB Data" sheetId="5" r:id="rId6"/>
+    <sheet name="DB Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Duration</t>
   </si>
@@ -171,18 +170,6 @@
   </si>
   <si>
     <t>STEP SKIP</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Level 11</t>
-  </si>
-  <si>
-    <t>Level 111</t>
-  </si>
-  <si>
-    <t>Level 1111</t>
   </si>
   <si>
     <t>TAG</t>
@@ -950,9 +937,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2267,7 +2252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2317,7 +2301,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2559,7 +2542,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2745,9 +2727,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2862,7 +2842,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2912,7 +2891,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2986,7 +2964,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3060,7 +3037,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3152,7 +3128,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3228,7 +3203,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3278,7 +3252,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3511,7 +3484,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6689,12 +6661,12 @@
       <sheetName val="DB Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7029,7 +7001,7 @@
   <sheetData>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7111,19 +7083,19 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G21" s="25">
         <v>3</v>
@@ -7162,7 +7134,7 @@
   <sheetData>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>27</v>
@@ -7179,7 +7151,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -7196,7 +7168,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>16</v>
@@ -7281,13 +7253,13 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E21" s="32">
         <v>2</v>
@@ -7314,130 +7286,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="33" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T30"/>
@@ -7507,7 +7355,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -7533,7 +7381,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -7559,7 +7407,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -7588,62 +7436,62 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="R19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="S19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19" s="8" t="s">
+      <c r="T19" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -7660,10 +7508,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J20" s="12">
         <v>3</v>
@@ -7675,10 +7523,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R20" s="17">
         <v>3</v>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -3809,18 +3809,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>0.249 s</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="2600" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3879,17 +3879,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>Jan 06, 2023 2:45:19 PM</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400">
+          <a:endParaRPr lang="en-US" sz="1400" i="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3948,17 +3948,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>Jan 06, 2023 2:45:19 PM</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400">
+          <a:endParaRPr lang="en-US" sz="1400" i="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5193,18 +5193,18 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>4</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5360,18 +5360,18 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>6</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3000" b="1">
+          <a:endParaRPr lang="en-US" sz="3600" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5527,7 +5527,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -5536,7 +5536,7 @@
             <a:pPr algn="ctr"/>
             <a:t>8</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -6985,7 +6985,7 @@
   <dimension ref="B37:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Big Scenario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Exceptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,16 +16,19 @@
     <sheet name="Scenarios" sheetId="17" r:id="rId2"/>
     <sheet name="Tags" sheetId="20" r:id="rId3"/>
     <sheet name="Features" sheetId="19" r:id="rId4"/>
-    <sheet name="DB Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Exceptions" sheetId="22" r:id="rId5"/>
+    <sheet name="DB Data" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="4">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="3">[2]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[2]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="2">[3]Scenarios!#REF!</definedName>
     <definedName name="Chart1">#REF!</definedName>
     <definedName name="Chart10">#REF!</definedName>
   </definedNames>
@@ -68,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>Duration</t>
   </si>
@@ -254,6 +257,12 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
+  </si>
+  <si>
+    <t>STEP / HOOK TEXT</t>
   </si>
 </sst>
 </file>
@@ -937,7 +946,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2252,6 +2263,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2301,6 +2313,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2542,6 +2555,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2727,7 +2741,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2842,6 +2858,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2891,6 +2908,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2964,6 +2982,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3037,6 +3056,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3128,6 +3148,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3203,6 +3224,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3252,6 +3274,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3484,6 +3507,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6657,6 +6681,29 @@
       <sheetName val="Scenarios"/>
       <sheetName val="Tags"/>
       <sheetName val="Features"/>
+      <sheetName val="Exceptions"/>
+      <sheetName val="DB Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Scenarios"/>
+      <sheetName val="Tags"/>
+      <sheetName val="Features"/>
       <sheetName val="Execution"/>
       <sheetName val="DB Data"/>
     </sheetNames>
@@ -6672,7 +6719,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7286,6 +7333,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T30"/>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Exceptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\UI Changes - Jan 23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>Duration</t>
   </si>
@@ -264,6 +264,15 @@
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
+  <si>
+    <t>Features Pass %</t>
+  </si>
+  <si>
+    <t>Scenarios Pass %</t>
+  </si>
+  <si>
+    <t>Steps Pass %</t>
+  </si>
 </sst>
 </file>
 
@@ -328,34 +337,40 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -552,6 +567,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,902 +593,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.0903995566291271E-2"/>
-          <c:y val="0.19400029633392601"/>
-          <c:w val="0.96715927750410513"/>
-          <c:h val="0.78524645049290098"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1925-49B6-827A-B853D3337F7F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1925-49B6-827A-B853D3337F7F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1925-49B6-827A-B853D3337F7F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1925-49B6-827A-B853D3337F7F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.33104174160971E-2"/>
-          <c:y val="0.17399131020088512"/>
-          <c:w val="0.93298799578986635"/>
-          <c:h val="0.80271606659122552"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-69CD-4D95-9BCF-D378A2484937}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-69CD-4D95-9BCF-D378A2484937}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-69CD-4D95-9BCF-D378A2484937}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-69CD-4D95-9BCF-D378A2484937}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.5631179664185815E-2"/>
-          <c:y val="5.276146684702563E-2"/>
-          <c:w val="0.91171844101679089"/>
-          <c:h val="0.92394979974548064"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9043-498D-B57C-B9E4CCFA9E88}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9043-498D-B57C-B9E4CCFA9E88}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-9043-498D-B57C-B9E4CCFA9E88}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9043-498D-B57C-B9E4CCFA9E88}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.8133264002377064E-2"/>
-          <c:y val="0.18370769611227392"/>
-          <c:w val="0.92778149193614945"/>
-          <c:h val="0.79310381321924939"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-47B5-4118-A95C-5D61CE0D4ABE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-47B5-4118-A95C-5D61CE0D4ABE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-47B5-4118-A95C-5D61CE0D4ABE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-47B5-4118-A95C-5D61CE0D4ABE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1866,7 +986,229 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.33104174160971E-2"/>
+          <c:y val="0.17399131020088512"/>
+          <c:w val="0.93298799578986635"/>
+          <c:h val="0.80271606659122552"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-69CD-4D95-9BCF-D378A2484937}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-69CD-4D95-9BCF-D378A2484937}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-69CD-4D95-9BCF-D378A2484937}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Features Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Features Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Features Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-69CD-4D95-9BCF-D378A2484937}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2229,6 +1571,678 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0903995566291271E-2"/>
+          <c:y val="0.19400029633392601"/>
+          <c:w val="0.96715927750410513"/>
+          <c:h val="0.78524645049290098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1925-49B6-827A-B853D3337F7F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1925-49B6-827A-B853D3337F7F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1925-49B6-827A-B853D3337F7F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Features Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Features Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Features Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1925-49B6-827A-B853D3337F7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5631179664185815E-2"/>
+          <c:y val="5.276146684702563E-2"/>
+          <c:w val="0.91171844101679089"/>
+          <c:h val="0.92394979974548064"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9043-498D-B57C-B9E4CCFA9E88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9043-498D-B57C-B9E4CCFA9E88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9043-498D-B57C-B9E4CCFA9E88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9043-498D-B57C-B9E4CCFA9E88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8133264002377064E-2"/>
+          <c:y val="0.18370769611227392"/>
+          <c:w val="0.92778149193614945"/>
+          <c:h val="0.79310381321924939"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-47B5-4118-A95C-5D61CE0D4ABE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-47B5-4118-A95C-5D61CE0D4ABE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-47B5-4118-A95C-5D61CE0D4ABE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-47B5-4118-A95C-5D61CE0D4ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2263,7 +2277,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2313,7 +2326,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2555,7 +2567,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2741,9 +2752,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2770,13 +2779,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +2867,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2908,7 +2916,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2982,7 +2989,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3056,7 +3062,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3148,7 +3153,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3224,7 +3228,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3274,7 +3277,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3507,7 +3509,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3551,1459 +3552,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1556385</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="171450" y="76200"/>
-          <a:ext cx="3566160" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2619374</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>80009</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8277224" y="76200"/>
-          <a:ext cx="3566160" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2619375</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8277225" y="504825"/>
-          <a:ext cx="3566160" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>942974</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1076324" y="104776"/>
-          <a:ext cx="2638426" cy="733424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.249 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3600450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9258300" y="85725"/>
-          <a:ext cx="2562225" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:19 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3609975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9267825" y="523875"/>
-          <a:ext cx="2552700" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:19 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>99059</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>132098</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="171449" y="57150"/>
-          <a:ext cx="11690985" cy="3313448"/>
-          <a:chOff x="152399" y="63104"/>
-          <a:chExt cx="11690985" cy="3079346"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="152399" y="496852"/>
-            <a:ext cx="3566160" cy="2645598"/>
-            <a:chOff x="152399" y="496852"/>
-            <a:chExt cx="3566160" cy="2645598"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Rectangle 23"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="152399" y="881994"/>
-              <a:ext cx="3566160" cy="2260456"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="25" name="Group 24"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="190500" y="496852"/>
-              <a:ext cx="3495675" cy="2634366"/>
-              <a:chOff x="190500" y="496852"/>
-              <a:chExt cx="3495675" cy="2634366"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="26" name="Group 25"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="190500" y="935675"/>
-                <a:ext cx="1190625" cy="807306"/>
-                <a:chOff x="190500" y="935675"/>
-                <a:chExt cx="1190625" cy="807306"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="190500" y="935675"/>
-                  <a:ext cx="1188720" cy="807306"/>
-                </a:xfrm>
-                <a:prstGeom prst="roundRect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:lnRef>
-                <a:fillRef idx="3">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="3">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1300" b="1" u="none">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>FEATURES</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:srgbClr val="51FF21"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>PASSED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>FAILED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>SKIPPED</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$D$2">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="29" name="TextBox 28"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="819150" y="1134251"/>
-                  <a:ext cx="561975" cy="247651"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1100" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="27F959"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>1</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1100" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="27F959"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$D$3">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="30" name="TextBox 29"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="819149" y="1297521"/>
-                  <a:ext cx="561975" cy="247651"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1100" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>2</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1100" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$D$4">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="31" name="TextBox 30"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="828675" y="1460795"/>
-                  <a:ext cx="542925" cy="257174"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1100" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>1</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1100" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FFFF00"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-          <xdr:graphicFrame macro="">
-            <xdr:nvGraphicFramePr>
-              <xdr:cNvPr id="27" name="FeatureDough"/>
-              <xdr:cNvGraphicFramePr>
-                <a:graphicFrameLocks/>
-              </xdr:cNvGraphicFramePr>
-            </xdr:nvGraphicFramePr>
-            <xdr:xfrm>
-              <a:off x="1295400" y="496852"/>
-              <a:ext cx="2390775" cy="2634366"/>
-            </xdr:xfrm>
-            <a:graphic>
-              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-              </a:graphicData>
-            </a:graphic>
-          </xdr:graphicFrame>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="3790948" y="63104"/>
-            <a:ext cx="4394837" cy="3076966"/>
-            <a:chOff x="3790948" y="63104"/>
-            <a:chExt cx="4394837" cy="3076966"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3790948" y="80806"/>
-              <a:ext cx="4389120" cy="3059264"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3857625" y="156698"/>
-              <a:ext cx="1280160" cy="849796"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1600" b="1" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>SCENARIOS</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>PASSED</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>FAILED</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>SKIPPED</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$F$2">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="TextBox 19"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4514849" y="355274"/>
-              <a:ext cx="619125" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>2</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="51FF21"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$F$3">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="TextBox 20"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4524375" y="536249"/>
-              <a:ext cx="600074" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>2</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$F$4">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="TextBox 21"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4524374" y="708373"/>
-              <a:ext cx="600075" cy="257174"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>2</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4848225" y="63104"/>
-            <a:ext cx="3337560" cy="3016774"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8258175" y="505706"/>
-            <a:ext cx="3585209" cy="2636071"/>
-            <a:chOff x="8258175" y="505706"/>
-            <a:chExt cx="3585209" cy="2636071"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8258175" y="881321"/>
-              <a:ext cx="3566160" cy="2260456"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>/</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8296276" y="935676"/>
-              <a:ext cx="1188720" cy="807306"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1300" b="1" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>STEPS</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>PASSED</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>FAILED</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>SKIPPED</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$H$2">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="TextBox 13"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8953500" y="1134252"/>
-              <a:ext cx="523876" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>6</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="51FF21"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$H$3">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextBox 14"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8943975" y="1306375"/>
-              <a:ext cx="542925" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>1</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$H$4">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="TextBox 15"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8934450" y="1469647"/>
-              <a:ext cx="552450" cy="239936"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>1</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="9420224" y="505706"/>
-            <a:ext cx="2423160" cy="2634366"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5030,7 +3578,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5062,10 +3610,1619 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99059</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>132098</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="148" name="Group 147"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="171449" y="57150"/>
+          <a:ext cx="11690985" cy="3313448"/>
+          <a:chOff x="171449" y="57150"/>
+          <a:chExt cx="11690985" cy="3313448"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="Group 34"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="171449" y="57150"/>
+            <a:ext cx="11690985" cy="3313448"/>
+            <a:chOff x="171449" y="57150"/>
+            <a:chExt cx="11690985" cy="3313448"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="32" name="Group 31"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171449" y="57150"/>
+              <a:ext cx="11690985" cy="3313448"/>
+              <a:chOff x="171449" y="57150"/>
+              <a:chExt cx="11690985" cy="3313448"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="2" name="Rectangle 1"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="171450" y="76200"/>
+                <a:ext cx="3566160" cy="777240"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Duration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="3" name="Rectangle 2"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8277224" y="76200"/>
+                <a:ext cx="3566160" cy="365760"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Start Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8277225" y="504825"/>
+                <a:ext cx="3566160" cy="365760"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>End Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="8" name="Group 7"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="171449" y="57150"/>
+                <a:ext cx="11690985" cy="3313448"/>
+                <a:chOff x="152399" y="63104"/>
+                <a:chExt cx="11690985" cy="3079346"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="9" name="Group 8"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="152399" y="496852"/>
+                  <a:ext cx="3566160" cy="2645598"/>
+                  <a:chOff x="152399" y="496852"/>
+                  <a:chExt cx="3566160" cy="2645598"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="24" name="Rectangle 23"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="152399" y="881994"/>
+                    <a:ext cx="3566160" cy="2260456"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="25" name="Group 24"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="190500" y="496852"/>
+                    <a:ext cx="3495675" cy="2634366"/>
+                    <a:chOff x="190500" y="496852"/>
+                    <a:chExt cx="3495675" cy="2634366"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="26" name="Group 25"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="190500" y="935675"/>
+                      <a:ext cx="1190625" cy="807306"/>
+                      <a:chOff x="190500" y="935675"/>
+                      <a:chExt cx="1190625" cy="807306"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="190500" y="935675"/>
+                        <a:ext cx="1188720" cy="807306"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="3">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="3">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1300" b="1" u="none">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FEATURES</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="51FF21"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>PASSED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FAILED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>SKIPPED</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="29" name="TextBox 28"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="819150" y="1134251"/>
+                        <a:ext cx="561975" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="27F959"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="30" name="TextBox 29"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="819149" y="1297521"/>
+                        <a:ext cx="561975" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="31" name="TextBox 30"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="828675" y="1460795"/>
+                        <a:ext cx="542925" cy="257174"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:graphicFrame macro="">
+                  <xdr:nvGraphicFramePr>
+                    <xdr:cNvPr id="27" name="FeatureDough"/>
+                    <xdr:cNvGraphicFramePr>
+                      <a:graphicFrameLocks/>
+                    </xdr:cNvGraphicFramePr>
+                  </xdr:nvGraphicFramePr>
+                  <xdr:xfrm>
+                    <a:off x="1295400" y="496852"/>
+                    <a:ext cx="2390775" cy="2634366"/>
+                  </xdr:xfrm>
+                  <a:graphic>
+                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+                    </a:graphicData>
+                  </a:graphic>
+                </xdr:graphicFrame>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="10" name="Group 9"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3790948" y="63104"/>
+                  <a:ext cx="4394837" cy="3076966"/>
+                  <a:chOff x="3790948" y="63104"/>
+                  <a:chExt cx="4394837" cy="3076966"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="18" name="Rectangle 17"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3790948" y="80806"/>
+                    <a:ext cx="4389120" cy="3059264"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3857625" y="156698"/>
+                    <a:ext cx="1280160" cy="849796"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="3">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="3">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" u="none">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SCENARIOS</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="TextBox 19"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4514849" y="355274"/>
+                    <a:ext cx="619125" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>3</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="TextBox 20"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4524375" y="536249"/>
+                    <a:ext cx="600074" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>3</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="TextBox 21"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4524374" y="708373"/>
+                    <a:ext cx="600075" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>3</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="23" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="4848225" y="63104"/>
+                  <a:ext cx="3337560" cy="3016774"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="11" name="Group 10"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8258175" y="505706"/>
+                  <a:ext cx="3585209" cy="2636071"/>
+                  <a:chOff x="8258175" y="505706"/>
+                  <a:chExt cx="3585209" cy="2636071"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="12" name="Rectangle 11"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8258175" y="881321"/>
+                    <a:ext cx="3566160" cy="2260456"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100"/>
+                      <a:t>/</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8296276" y="935676"/>
+                    <a:ext cx="1188720" cy="807306"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="3">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="3">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1300" b="1" u="none">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>STEPS</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="14" name="TextBox 13"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8953500" y="1134252"/>
+                    <a:ext cx="523876" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>6</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="15" name="TextBox 14"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8943975" y="1306375"/>
+                    <a:ext cx="542925" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="16" name="TextBox 15"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8934450" y="1469647"/>
+                    <a:ext cx="552450" cy="239936"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="17" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="9420224" y="505706"/>
+                  <a:ext cx="2423160" cy="2634366"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1076324" y="104776"/>
+              <a:ext cx="2638426" cy="733424"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+                <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>0.249 s</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9258300" y="85725"/>
+              <a:ext cx="2562225" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>Jan 06, 2023 2:45:19 PM</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9267825" y="523875"/>
+              <a:ext cx="2552700" cy="333375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>Jan 06, 2023 2:45:19 PM</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="TextBox 143"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="171450" y="3028950"/>
+            <a:ext cx="819150" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pass % - </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="'DB Data'!$D$6">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="TextBox 144"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="800099" y="3009900"/>
+            <a:ext cx="790576" cy="323851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:fld id="{68924295-E56D-412A-8FBF-ACEAD3768A43}" type="TxLink">
+              <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>40%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="2000" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="147" name="TextBox 146"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3829050" y="3048000"/>
+            <a:ext cx="819150" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pass % - </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="'DB Data'!$F$6">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="TextBox 145"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4476748" y="3009900"/>
+            <a:ext cx="914401" cy="323851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:fld id="{B023BFB7-687A-4C4E-B6BC-39B87BEC2916}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>33%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5224,7 +5381,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>4</a:t>
+            <a:t>5</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -5391,7 +5548,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>6</a:t>
+            <a:t>9</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3600" b="1">
             <a:solidFill>
@@ -5782,7 +5939,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2</a:t>
+            <a:t>3</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -5852,7 +6009,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2</a:t>
+            <a:t>3</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -5922,7 +6079,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2</a:t>
+            <a:t>3</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6090,7 +6247,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>6</a:t>
+            <a:t>9</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -6351,7 +6508,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6421,7 +6578,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6491,7 +6648,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6659,7 +6816,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>4</a:t>
+            <a:t>5</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -6690,7 +6847,68 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Features Passed</v>
+          </cell>
+          <cell r="D2">
+            <v>1</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Scenarios Passed</v>
+          </cell>
+          <cell r="F2">
+            <v>2</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Steps Passed</v>
+          </cell>
+          <cell r="H2">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Features Failed</v>
+          </cell>
+          <cell r="D3">
+            <v>2</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Scenarios Failed</v>
+          </cell>
+          <cell r="F3">
+            <v>2</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Steps Failed</v>
+          </cell>
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Features Skipped</v>
+          </cell>
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Scenarios Skipped</v>
+          </cell>
+          <cell r="F4">
+            <v>2</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>Steps Skipped</v>
+          </cell>
+          <cell r="H4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7032,7 +7250,7 @@
   <dimension ref="B37:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7373,7 +7591,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7383,7 +7601,7 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -7417,13 +7635,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -7443,13 +7661,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -7469,13 +7687,13 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -7496,14 +7714,14 @@
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5">
         <f>SUM(F2:F4)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -7519,6 +7737,27 @@
       </c>
       <c r="B6" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="46">
+        <f>D2/D5</f>
+        <v>0.4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="46">
+        <f>F2/F5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="46">
+        <f>H2/H5</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\UI Changes - Jan 23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,13 +22,12 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Chart1" localSheetId="4">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="3">[2]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[3]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="2">[2]Scenarios!#REF!</definedName>
     <definedName name="Chart1">#REF!</definedName>
     <definedName name="Chart10">#REF!</definedName>
   </definedNames>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>Duration</t>
   </si>
@@ -264,15 +263,6 @@
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
-  <si>
-    <t>Features Pass %</t>
-  </si>
-  <si>
-    <t>Scenarios Pass %</t>
-  </si>
-  <si>
-    <t>Steps Pass %</t>
-  </si>
 </sst>
 </file>
 
@@ -337,40 +327,34 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -562,12 +546,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +600,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -625,7 +609,7 @@
               <a:t>Features with Failed &amp; Skipped</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -634,7 +618,7 @@
               <a:t> Scenarios</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -650,7 +634,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3440412897698315E-2"/>
+          <c:y val="0.10261559944911276"/>
+          <c:w val="0.89710845542622875"/>
+          <c:h val="0.85411987031170589"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1132,7 +1126,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1159,13 +1155,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,7 +1228,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -1247,7 +1243,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8313518273888155E-2"/>
+          <c:y val="0.10274354471012281"/>
+          <c:w val="0.9323117569352708"/>
+          <c:h val="0.8539379810924318"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1585,17 +1591,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.1527224435590979E-2"/>
+          <c:y val="5.3411103774677782E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.0903995566291271E-2"/>
-          <c:y val="0.19400029633392601"/>
-          <c:w val="0.96715927750410513"/>
-          <c:h val="0.78524645049290098"/>
+          <c:x val="7.2613864443415166E-2"/>
+          <c:y val="0.11008420605172034"/>
+          <c:w val="0.90409526015130459"/>
+          <c:h val="0.85983853317969527"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1746,13 +1782,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,17 +1845,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.6557632398753896E-2"/>
+          <c:y val="7.6408787010506206E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5631179664185815E-2"/>
-          <c:y val="5.276146684702563E-2"/>
-          <c:w val="0.91171844101679089"/>
-          <c:h val="0.92394979974548064"/>
+          <c:x val="6.4384183285500524E-2"/>
+          <c:y val="6.4419827177763234E-2"/>
+          <c:w val="0.91950658620943415"/>
+          <c:h val="0.90211763644157661"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1970,13 +2036,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,17 +2099,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8754798226494428E-3"/>
+          <c:y val="5.9065638181061884E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.8133264002377064E-2"/>
-          <c:y val="0.18370769611227392"/>
-          <c:w val="0.92778149193614945"/>
-          <c:h val="0.79310381321924939"/>
+          <c:x val="6.4524060319569115E-2"/>
+          <c:y val="0.10094890069649767"/>
+          <c:w val="0.91911729229686112"/>
+          <c:h val="0.86206927760676177"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -2267,7 +2363,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -2277,11 +2373,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="9.7816794160272044E-2"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.85929820242151389"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2326,6 +2433,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2567,6 +2675,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2752,7 +2861,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2779,13 +2890,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,7 +2968,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -2867,11 +2978,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8373416084820274E-2"/>
+          <c:y val="9.6685905151971507E-2"/>
+          <c:w val="0.96024825446082229"/>
+          <c:h val="0.86092489769092662"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2916,6 +3038,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2989,6 +3112,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3062,6 +3186,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3153,6 +3278,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3217,7 +3343,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -3228,11 +3354,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3339410513521725E-2"/>
+          <c:y val="9.8103616813294256E-2"/>
+          <c:w val="0.95329079307201459"/>
+          <c:h val="0.85888563049853373"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -3277,6 +3414,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3509,6 +3647,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3557,13 +3696,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3587,15 +3726,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:colOff>1123950</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>186477</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34077</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3621,1239 +3760,226 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>99059</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>132098</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="148" name="Group 147"/>
+        <xdr:cNvPr id="38" name="Group 37"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="171449" y="57150"/>
-          <a:ext cx="11690985" cy="3313448"/>
-          <a:chOff x="171449" y="57150"/>
-          <a:chExt cx="11690985" cy="3313448"/>
+          <a:off x="171449" y="85725"/>
+          <a:ext cx="12058651" cy="3343276"/>
+          <a:chOff x="171449" y="85725"/>
+          <a:chExt cx="12058651" cy="3343276"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="35" name="Group 34"/>
+          <xdr:cNvPr id="32" name="Group 31"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="57150"/>
-            <a:ext cx="11690985" cy="3313448"/>
-            <a:chOff x="171449" y="57150"/>
-            <a:chExt cx="11690985" cy="3313448"/>
+            <a:off x="171449" y="85725"/>
+            <a:ext cx="12058651" cy="3343276"/>
+            <a:chOff x="171449" y="85725"/>
+            <a:chExt cx="12058651" cy="3343276"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="32" name="Group 31"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="Rectangle 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="57150"/>
-              <a:ext cx="11690985" cy="3313448"/>
-              <a:chOff x="171449" y="57150"/>
-              <a:chExt cx="11690985" cy="3313448"/>
+              <a:off x="171450" y="95250"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="2" name="Rectangle 1"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="171450" y="76200"/>
-                <a:ext cx="3566160" cy="777240"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Duration</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="3" name="Rectangle 2"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8277224" y="76200"/>
-                <a:ext cx="3566160" cy="365760"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0" algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Start Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="4" name="Rectangle 3"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8277225" y="504825"/>
-                <a:ext cx="3566160" cy="365760"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>End Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="8" name="Group 7"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="171449" y="57150"/>
-                <a:ext cx="11690985" cy="3313448"/>
-                <a:chOff x="152399" y="63104"/>
-                <a:chExt cx="11690985" cy="3079346"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="9" name="Group 8"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="152399" y="496852"/>
-                  <a:ext cx="3566160" cy="2645598"/>
-                  <a:chOff x="152399" y="496852"/>
-                  <a:chExt cx="3566160" cy="2645598"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="24" name="Rectangle 23"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="152399" y="881994"/>
-                    <a:ext cx="3566160" cy="2260456"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:ln w="6350"/>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="dk1"/>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="lt1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="dk1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:endParaRPr lang="en-US" sz="1100"/>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="25" name="Group 24"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="190500" y="496852"/>
-                    <a:ext cx="3495675" cy="2634366"/>
-                    <a:chOff x="190500" y="496852"/>
-                    <a:chExt cx="3495675" cy="2634366"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="26" name="Group 25"/>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="190500" y="935675"/>
-                      <a:ext cx="1190625" cy="807306"/>
-                      <a:chOff x="190500" y="935675"/>
-                      <a:chExt cx="1190625" cy="807306"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="190500" y="935675"/>
-                        <a:ext cx="1188720" cy="807306"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="roundRect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="0">
-                        <a:schemeClr val="accent1"/>
-                      </a:lnRef>
-                      <a:fillRef idx="3">
-                        <a:schemeClr val="accent1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="3">
-                        <a:schemeClr val="accent1"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1300" b="1" u="none">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                          </a:rPr>
-                          <a:t>FEATURES</a:t>
-                        </a:r>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="l"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1100">
-                            <a:solidFill>
-                              <a:srgbClr val="51FF21"/>
-                            </a:solidFill>
-                          </a:rPr>
-                          <a:t>PASSED</a:t>
-                        </a:r>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="l"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1100">
-                            <a:solidFill>
-                              <a:srgbClr val="FF0000"/>
-                            </a:solidFill>
-                          </a:rPr>
-                          <a:t>FAILED</a:t>
-                        </a:r>
-                      </a:p>
-                      <a:p>
-                        <a:pPr algn="l"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1100">
-                            <a:solidFill>
-                              <a:srgbClr val="FFFF00"/>
-                            </a:solidFill>
-                          </a:rPr>
-                          <a:t>SKIPPED</a:t>
-                        </a:r>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="29" name="TextBox 28"/>
-                      <xdr:cNvSpPr txBox="1"/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="819150" y="1134251"/>
-                        <a:ext cx="561975" cy="247651"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:noFill/>
-                      <a:ln w="9525" cmpd="sng">
-                        <a:noFill/>
-                      </a:ln>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="0">
-                        <a:scrgbClr r="0" g="0" b="0"/>
-                      </a:lnRef>
-                      <a:fillRef idx="0">
-                        <a:scrgbClr r="0" g="0" b="0"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:scrgbClr r="0" g="0" b="0"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="dk1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
-                          <a:rPr lang="en-US" sz="1100" b="0">
-                            <a:solidFill>
-                              <a:srgbClr val="27F959"/>
-                            </a:solidFill>
-                          </a:rPr>
-                          <a:pPr algn="ctr"/>
-                          <a:t>2</a:t>
-                        </a:fld>
-                        <a:endParaRPr lang="en-US" sz="1100" b="0">
-                          <a:solidFill>
-                            <a:srgbClr val="27F959"/>
-                          </a:solidFill>
-                        </a:endParaRPr>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="30" name="TextBox 29"/>
-                      <xdr:cNvSpPr txBox="1"/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="819149" y="1297521"/>
-                        <a:ext cx="561975" cy="247651"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:noFill/>
-                      <a:ln w="9525" cmpd="sng">
-                        <a:noFill/>
-                      </a:ln>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="0">
-                        <a:scrgbClr r="0" g="0" b="0"/>
-                      </a:lnRef>
-                      <a:fillRef idx="0">
-                        <a:scrgbClr r="0" g="0" b="0"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:scrgbClr r="0" g="0" b="0"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="dk1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
-                          <a:rPr lang="en-US" sz="1100" b="0">
-                            <a:solidFill>
-                              <a:srgbClr val="FF0000"/>
-                            </a:solidFill>
-                          </a:rPr>
-                          <a:pPr algn="ctr"/>
-                          <a:t>1</a:t>
-                        </a:fld>
-                        <a:endParaRPr lang="en-US" sz="1100" b="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                        </a:endParaRPr>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="31" name="TextBox 30"/>
-                      <xdr:cNvSpPr txBox="1"/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="828675" y="1460795"/>
-                        <a:ext cx="542925" cy="257174"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:noFill/>
-                      <a:ln w="9525" cmpd="sng">
-                        <a:noFill/>
-                      </a:ln>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="0">
-                        <a:scrgbClr r="0" g="0" b="0"/>
-                      </a:lnRef>
-                      <a:fillRef idx="0">
-                        <a:scrgbClr r="0" g="0" b="0"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:scrgbClr r="0" g="0" b="0"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="dk1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
-                          <a:rPr lang="en-US" sz="1100" b="0">
-                            <a:solidFill>
-                              <a:srgbClr val="FFFF00"/>
-                            </a:solidFill>
-                          </a:rPr>
-                          <a:pPr algn="ctr"/>
-                          <a:t>2</a:t>
-                        </a:fld>
-                        <a:endParaRPr lang="en-US" sz="1100" b="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FFFF00"/>
-                          </a:solidFill>
-                        </a:endParaRPr>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-                <xdr:graphicFrame macro="">
-                  <xdr:nvGraphicFramePr>
-                    <xdr:cNvPr id="27" name="FeatureDough"/>
-                    <xdr:cNvGraphicFramePr>
-                      <a:graphicFrameLocks/>
-                    </xdr:cNvGraphicFramePr>
-                  </xdr:nvGraphicFramePr>
-                  <xdr:xfrm>
-                    <a:off x="1295400" y="496852"/>
-                    <a:ext cx="2390775" cy="2634366"/>
-                  </xdr:xfrm>
-                  <a:graphic>
-                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-                    </a:graphicData>
-                  </a:graphic>
-                </xdr:graphicFrame>
-              </xdr:grpSp>
-            </xdr:grpSp>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="10" name="Group 9"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="3790948" y="63104"/>
-                  <a:ext cx="4394837" cy="3076966"/>
-                  <a:chOff x="3790948" y="63104"/>
-                  <a:chExt cx="4394837" cy="3076966"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="18" name="Rectangle 17"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="3790948" y="80806"/>
-                    <a:ext cx="4389120" cy="3059264"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
+                </a:rPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
-                  <a:ln w="6350"/>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="dk1"/>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="lt1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="dk1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:endParaRPr lang="en-US" sz="1100"/>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="3857625" y="156698"/>
-                    <a:ext cx="1280160" cy="849796"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="roundRect">
-                    <a:avLst/>
-                  </a:prstGeom>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8458199" y="95250"/>
+              <a:ext cx="3749040" cy="320040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="1">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:lnRef>
-                  <a:fillRef idx="3">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="3">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" b="1" u="none">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>SCENARIOS</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200">
-                        <a:solidFill>
-                          <a:srgbClr val="51FF21"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>PASSED</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>FAILED</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200">
-                        <a:solidFill>
-                          <a:srgbClr val="FFFF00"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>SKIPPED</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="'DB Data'!$F$2">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="20" name="TextBox 19"/>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="4514849" y="355274"/>
-                    <a:ext cx="619125" cy="247651"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln w="9525" cmpd="sng">
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                        <a:solidFill>
-                          <a:srgbClr val="51FF21"/>
-                        </a:solidFill>
-                        <a:latin typeface="Calibri"/>
-                      </a:rPr>
-                      <a:pPr algn="ctr"/>
-                      <a:t>3</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" sz="1200" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="51FF21"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="'DB Data'!$F$3">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="21" name="TextBox 20"/>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="4524375" y="536249"/>
-                    <a:ext cx="600074" cy="247651"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln w="9525" cmpd="sng">
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                        <a:latin typeface="Calibri"/>
-                      </a:rPr>
-                      <a:pPr algn="ctr"/>
-                      <a:t>3</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" sz="1200" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="'DB Data'!$F$4">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="22" name="TextBox 21"/>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="4524374" y="708373"/>
-                    <a:ext cx="600075" cy="257174"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln w="9525" cmpd="sng">
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                        <a:solidFill>
-                          <a:srgbClr val="FFFF00"/>
-                        </a:solidFill>
-                        <a:latin typeface="Calibri"/>
-                      </a:rPr>
-                      <a:pPr algn="ctr"/>
-                      <a:t>3</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" sz="1200" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:graphicFrame macro="">
-                <xdr:nvGraphicFramePr>
-                  <xdr:cNvPr id="23" name="FeatureDough"/>
-                  <xdr:cNvGraphicFramePr>
-                    <a:graphicFrameLocks/>
-                  </xdr:cNvGraphicFramePr>
-                </xdr:nvGraphicFramePr>
-                <xdr:xfrm>
-                  <a:off x="4848225" y="63104"/>
-                  <a:ext cx="3337560" cy="3016774"/>
-                </xdr:xfrm>
-                <a:graphic>
-                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-                  </a:graphicData>
-                </a:graphic>
-              </xdr:graphicFrame>
-            </xdr:grpSp>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="11" name="Group 10"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="8258175" y="505706"/>
-                  <a:ext cx="3585209" cy="2636071"/>
-                  <a:chOff x="8258175" y="505706"/>
-                  <a:chExt cx="3585209" cy="2636071"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="12" name="Rectangle 11"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="8258175" y="881321"/>
-                    <a:ext cx="3566160" cy="2260456"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
+                </a:rPr>
+                <a:t>Start Time</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
-                  <a:ln w="6350"/>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="dk1"/>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="lt1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="dk1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100"/>
-                      <a:t>/</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="8296276" y="935676"/>
-                    <a:ext cx="1188720" cy="807306"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="roundRect">
-                    <a:avLst/>
-                  </a:prstGeom>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="Rectangle 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8467725" y="457200"/>
+              <a:ext cx="3749040" cy="320040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="1">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:lnRef>
-                  <a:fillRef idx="3">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="3">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1300" b="1" u="none">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>STEPS</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100">
-                        <a:solidFill>
-                          <a:srgbClr val="51FF21"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>PASSED</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>FAILED</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100">
-                        <a:solidFill>
-                          <a:srgbClr val="FFFF00"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>SKIPPED</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="'DB Data'!$H$2">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="14" name="TextBox 13"/>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="8953500" y="1134252"/>
-                    <a:ext cx="523876" cy="247651"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln w="9525" cmpd="sng">
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
-                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                        <a:solidFill>
-                          <a:srgbClr val="51FF21"/>
-                        </a:solidFill>
-                        <a:latin typeface="Calibri"/>
-                      </a:rPr>
-                      <a:pPr algn="ctr"/>
-                      <a:t>6</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" sz="1200" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="51FF21"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="'DB Data'!$H$3">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="15" name="TextBox 14"/>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="8943975" y="1306375"/>
-                    <a:ext cx="542925" cy="247651"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln w="9525" cmpd="sng">
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
-                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                        <a:latin typeface="Calibri"/>
-                      </a:rPr>
-                      <a:pPr algn="ctr"/>
-                      <a:t>1</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" sz="1200" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="'DB Data'!$H$4">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="16" name="TextBox 15"/>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="8934450" y="1469647"/>
-                    <a:ext cx="552450" cy="239936"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln w="9525" cmpd="sng">
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
-                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                        <a:solidFill>
-                          <a:srgbClr val="FFFF00"/>
-                        </a:solidFill>
-                        <a:latin typeface="Calibri"/>
-                      </a:rPr>
-                      <a:pPr algn="ctr"/>
-                      <a:t>1</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" sz="1200" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:graphicFrame macro="">
-                <xdr:nvGraphicFramePr>
-                  <xdr:cNvPr id="17" name="FeatureDough"/>
-                  <xdr:cNvGraphicFramePr>
-                    <a:graphicFrameLocks/>
-                  </xdr:cNvGraphicFramePr>
-                </xdr:nvGraphicFramePr>
-                <xdr:xfrm>
-                  <a:off x="9420224" y="505706"/>
-                  <a:ext cx="2423160" cy="2634366"/>
-                </xdr:xfrm>
-                <a:graphic>
-                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-                  </a:graphicData>
-                </a:graphic>
-              </xdr:graphicFrame>
-            </xdr:grpSp>
-          </xdr:grpSp>
-        </xdr:grpSp>
+                </a:rPr>
+                <a:t>End Time</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
         <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -4861,8 +3987,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1076324" y="104776"/>
-              <a:ext cx="2638426" cy="733424"/>
+              <a:off x="1000125" y="95249"/>
+              <a:ext cx="2924175" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4916,8 +4042,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9258300" y="85725"/>
-              <a:ext cx="2562225" cy="352425"/>
+              <a:off x="9420225" y="104775"/>
+              <a:ext cx="2781300" cy="314325"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4970,8 +4096,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9267825" y="523875"/>
-              <a:ext cx="2552700" cy="333375"/>
+              <a:off x="9420225" y="466725"/>
+              <a:ext cx="2809875" cy="314325"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5017,16 +4143,1020 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="8" name="Group 7"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171449" y="85725"/>
+              <a:ext cx="12045316" cy="3343276"/>
+              <a:chOff x="152399" y="89660"/>
+              <a:chExt cx="12045316" cy="3107067"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="9" name="Group 8"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="152399" y="665043"/>
+                <a:ext cx="3749040" cy="2531684"/>
+                <a:chOff x="152399" y="665043"/>
+                <a:chExt cx="3749040" cy="2531684"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="24" name="Rectangle 23"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="152399" y="784621"/>
+                  <a:ext cx="3749040" cy="2379428"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:ln w="6350"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="25" name="Group 24"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="266701" y="665043"/>
+                  <a:ext cx="3611879" cy="2531684"/>
+                  <a:chOff x="266701" y="665043"/>
+                  <a:chExt cx="3611879" cy="2531684"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="26" name="Group 25"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="2781300" y="829451"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                    <a:chOff x="2781300" y="829451"/>
+                    <a:chExt cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="2781300" y="829451"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="roundRect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="3">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="3">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:srgbClr val="51FF21"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>PASSED</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>FAILED</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>SKIPPED</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>TOTAL</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="29" name="TextBox 28"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3390900" y="833283"/>
+                      <a:ext cx="466725" cy="247651"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                        <a:rPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:pPr algn="ctr"/>
+                        <a:t>1</a:t>
+                      </a:fld>
+                      <a:endParaRPr lang="en-US" sz="1100" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="27F959"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="30" name="TextBox 29"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3381375" y="996552"/>
+                      <a:ext cx="485776" cy="247651"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                        <a:rPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:pPr algn="ctr"/>
+                        <a:t>2</a:t>
+                      </a:fld>
+                      <a:endParaRPr lang="en-US" sz="1100" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="31" name="TextBox 30"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3381375" y="1142122"/>
+                      <a:ext cx="485775" cy="257174"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                        <a:rPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:pPr algn="ctr"/>
+                        <a:t>1</a:t>
+                      </a:fld>
+                      <a:endParaRPr lang="en-US" sz="1100" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="27" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="266701" y="665043"/>
+                  <a:ext cx="2590800" cy="2531684"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="3981448" y="89660"/>
+                <a:ext cx="4389120" cy="3089362"/>
+                <a:chOff x="3981448" y="89660"/>
+                <a:chExt cx="4389120" cy="3089362"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="18" name="Rectangle 17"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3981448" y="98510"/>
+                  <a:ext cx="4389120" cy="3059264"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:ln w="6350"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7134225" y="156698"/>
+                  <a:ext cx="1188720" cy="849796"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="3">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="3">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>PASSED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>FAILED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>SKIPPED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>TOTAL</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$F$2">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="20" name="TextBox 19"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7791450" y="195938"/>
+                  <a:ext cx="533400" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>2</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="51FF21"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$F$3">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="21" name="TextBox 20"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7791449" y="368060"/>
+                  <a:ext cx="533401" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>2</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$F$4">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="22" name="TextBox 21"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7800975" y="531332"/>
+                  <a:ext cx="523875" cy="257174"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>2</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFF00"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:graphicFrame macro="">
+              <xdr:nvGraphicFramePr>
+                <xdr:cNvPr id="23" name="FeatureDough"/>
+                <xdr:cNvGraphicFramePr>
+                  <a:graphicFrameLocks/>
+                </xdr:cNvGraphicFramePr>
+              </xdr:nvGraphicFramePr>
+              <xdr:xfrm>
+                <a:off x="4010025" y="89660"/>
+                <a:ext cx="3261360" cy="3089362"/>
+              </xdr:xfrm>
+              <a:graphic>
+                <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                  <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                </a:graphicData>
+              </a:graphic>
+            </xdr:graphicFrame>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="11" name="Group 10"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="8448675" y="638489"/>
+                <a:ext cx="3749040" cy="2549386"/>
+                <a:chOff x="8448675" y="638489"/>
+                <a:chExt cx="3749040" cy="2549386"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="12" name="Rectangle 11"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8448675" y="783949"/>
+                  <a:ext cx="3749040" cy="2379428"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:ln w="6350"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11068051" y="820600"/>
+                  <a:ext cx="1097280" cy="764816"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="3">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="3">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>PASSED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>FAILED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>SKIPPED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>TOTAL</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$H$2">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="14" name="TextBox 13"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11649074" y="824430"/>
+                  <a:ext cx="495301" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>6</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="51FF21"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$H$3">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="15" name="TextBox 14"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11658600" y="987701"/>
+                  <a:ext cx="485775" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>1</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$H$4">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="16" name="TextBox 15"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11668125" y="1142121"/>
+                  <a:ext cx="476249" cy="239936"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>1</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFF00"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:graphicFrame macro="">
+              <xdr:nvGraphicFramePr>
+                <xdr:cNvPr id="17" name="FeatureDough"/>
+                <xdr:cNvGraphicFramePr>
+                  <a:graphicFrameLocks/>
+                </xdr:cNvGraphicFramePr>
+              </xdr:nvGraphicFramePr>
+              <xdr:xfrm>
+                <a:off x="8553448" y="638489"/>
+                <a:ext cx="2590801" cy="2549386"/>
+              </xdr:xfrm>
+              <a:graphic>
+                <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                  <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                </a:graphicData>
+              </a:graphic>
+            </xdr:graphicFrame>
+          </xdr:grpSp>
+        </xdr:grpSp>
       </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp macro="" textlink="'DB Data'!$H$5">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="144" name="TextBox 143"/>
+          <xdr:cNvPr id="35" name="TextBox 34"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="171450" y="3028950"/>
-            <a:ext cx="819150" cy="285750"/>
+            <a:off x="11687174" y="1390650"/>
+            <a:ext cx="476249" cy="258177"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5051,30 +5181,37 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400">
+            <a:pPr algn="ctr"/>
+            <a:fld id="{4CC5DA09-291F-4A51-A717-A0B844BAE6B1}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>Pass % - </a:t>
-            </a:r>
+              <a:pPr algn="ctr"/>
+              <a:t>8</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="'DB Data'!$D$6">
+      <xdr:sp macro="" textlink="'DB Data'!$D$5">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="145" name="TextBox 144"/>
+          <xdr:cNvPr id="36" name="TextBox 35"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="800099" y="3009900"/>
-            <a:ext cx="790576" cy="323851"/>
+            <a:off x="3400424" y="1390650"/>
+            <a:ext cx="485775" cy="276725"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5099,36 +5236,37 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:fld id="{68924295-E56D-412A-8FBF-ACEAD3768A43}" type="TxLink">
-              <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+            <a:pPr algn="ctr"/>
+            <a:fld id="{F6B299D3-9EF8-434E-91FD-E226C33E779B}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>40%</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>4</a:t>
             </a:fld>
-            <a:endParaRPr lang="en-US" sz="2000" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:endParaRPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp macro="" textlink="'DB Data'!$F$5">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="147" name="TextBox 146"/>
+          <xdr:cNvPr id="37" name="TextBox 36"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3829050" y="3048000"/>
-            <a:ext cx="819150" cy="285750"/>
+            <a:off x="7810500" y="762000"/>
+            <a:ext cx="533399" cy="276725"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5153,70 +5291,23 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400">
+            <a:pPr algn="ctr"/>
+            <a:fld id="{E0DBF034-522C-428F-86B0-51B7E09D2269}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Pass % - </a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="'DB Data'!$F$6">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="146" name="TextBox 145"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4476748" y="3009900"/>
-            <a:ext cx="914401" cy="323851"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:fld id="{B023BFB7-687A-4C4E-B6BC-39B87BEC2916}" type="TxLink">
-              <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>33%</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>6</a:t>
             </a:fld>
-            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:endParaRPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:endParaRPr>
           </a:p>
@@ -5232,22 +5323,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33068</cdr:x>
-      <cdr:y>0.42675</cdr:y>
+      <cdr:x>0.34191</cdr:x>
+      <cdr:y>0.36713</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.70518</cdr:x>
-      <cdr:y>0.74597</cdr:y>
+      <cdr:y>0.70979</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="790575" y="1209677"/>
-          <a:ext cx="895350" cy="904875"/>
+          <a:off x="885824" y="1000125"/>
+          <a:ext cx="941156" cy="933450"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5373,7 +5464,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{2097DC7E-C983-47ED-807E-A75BB41970B4}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -5381,7 +5472,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>5</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -5406,7 +5497,7 @@
       <cdr:x>0.70491</cdr:x>
       <cdr:y>0.69836</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
@@ -5540,17 +5631,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{D116F15A-412E-40A6-80BD-CB02BCF9F83C}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>9</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="accent6"/>
             </a:solidFill>
@@ -5566,22 +5657,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.31447</cdr:x>
-      <cdr:y>0.42003</cdr:y>
+      <cdr:x>0.34191</cdr:x>
+      <cdr:y>0.36207</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.69182</cdr:x>
-      <cdr:y>0.73925</cdr:y>
+      <cdr:x>0.70588</cdr:x>
+      <cdr:y>0.7</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="762001" y="1190625"/>
-          <a:ext cx="914400" cy="904875"/>
+          <a:off x="885827" y="1000123"/>
+          <a:ext cx="942975" cy="933450"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5707,19 +5798,19 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{CAC27D7A-61F0-4BF7-8A00-9B87280C3ADF}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>8</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5939,7 +6030,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6009,7 +6100,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6079,7 +6170,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6098,22 +6189,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32663</cdr:x>
+      <cdr:y>0.41017</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.69347</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="619125" y="914400"/>
+          <a:ext cx="695325" cy="685801"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6239,17 +6330,16 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+          <a:fld id="{16DEB938-1884-4D69-9C30-3844EF920FB3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>9</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -6508,7 +6598,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6578,7 +6668,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6648,7 +6738,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2</a:t>
+            <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6667,22 +6757,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32995</cdr:x>
+      <cdr:y>0.41927</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="619124" y="914399"/>
+          <a:ext cx="704851" cy="695325"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6808,17 +6898,16 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+          <a:fld id="{F5B8AB2B-98F8-475E-8BCB-9E2C4111BF3B}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>5</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -6842,102 +6931,18 @@
       <sheetName val="DB Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>Features Passed</v>
-          </cell>
-          <cell r="D2">
-            <v>1</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Scenarios Passed</v>
-          </cell>
-          <cell r="F2">
-            <v>2</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>Steps Passed</v>
-          </cell>
-          <cell r="H2">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Features Failed</v>
-          </cell>
-          <cell r="D3">
-            <v>2</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Scenarios Failed</v>
-          </cell>
-          <cell r="F3">
-            <v>2</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>Steps Failed</v>
-          </cell>
-          <cell r="H3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Features Skipped</v>
-          </cell>
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Scenarios Skipped</v>
-          </cell>
-          <cell r="F4">
-            <v>2</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>Steps Skipped</v>
-          </cell>
-          <cell r="H4">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Tags"/>
-      <sheetName val="Features"/>
-      <sheetName val="Execution"/>
-      <sheetName val="DB Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7249,9 +7254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B37:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7270,17 +7273,17 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="42"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="7" t="s">
         <v>23</v>
       </c>
@@ -7302,7 +7305,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7382,9 +7385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B20:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7435,15 +7436,15 @@
       <c r="B24" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="43" t="s">
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="44"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="40" t="s">
         <v>23</v>
       </c>
@@ -7465,7 +7466,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7554,9 +7555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7591,7 +7590,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7601,7 +7600,7 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -7635,13 +7634,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -7661,13 +7660,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -7687,13 +7686,13 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -7714,14 +7713,14 @@
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5">
         <f>SUM(F2:F4)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -7738,25 +7737,13 @@
       <c r="B6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="46">
-        <f>D2/D5</f>
-        <v>0.4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="46">
-        <f>F2/F5</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="46">
-        <f>H2/H5</f>
+      <c r="D6" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0.33</v>
+      </c>
+      <c r="H6" s="41">
         <v>0.75</v>
       </c>
     </row>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>Duration</t>
   </si>
@@ -148,30 +148,6 @@
   </si>
   <si>
     <t>Excel Extent Report</t>
-  </si>
-  <si>
-    <t>SCENARIO PASS</t>
-  </si>
-  <si>
-    <t>SCENARIO TOTAL</t>
-  </si>
-  <si>
-    <t>SCENARIO FAIL</t>
-  </si>
-  <si>
-    <t>SCENARIO SKIP</t>
-  </si>
-  <si>
-    <t>STEP TOTAL</t>
-  </si>
-  <si>
-    <t>STEP PASS</t>
-  </si>
-  <si>
-    <t>STEP FAIL</t>
-  </si>
-  <si>
-    <t>STEP SKIP</t>
   </si>
   <si>
     <t>TAG</t>
@@ -263,12 +239,36 @@
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>FEATURE</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>PASS %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,34 +327,67 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF51FF21"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -365,7 +398,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -430,9 +463,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="hair">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="hair">
@@ -444,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -454,7 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -547,11 +635,75 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2398,11 +2550,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scenarios!$H$20</c:f>
+              <c:f>Scenarios!$H$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STEP PASS</c:v>
+                  <c:v>PASSED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2440,7 +2592,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$21</c:f>
+              <c:f>Scenarios!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2451,7 +2603,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$21:$H$21</c:f>
+              <c:f>Scenarios!$H$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2472,11 +2624,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scenarios!$J$20</c:f>
+              <c:f>Scenarios!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STEP SKIP</c:v>
+                  <c:v>SKIPPED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2513,7 +2665,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$21</c:f>
+              <c:f>Scenarios!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2524,7 +2676,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$21:$J$21</c:f>
+              <c:f>Scenarios!$J$22:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2542,11 +2694,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scenarios!$I$20</c:f>
+              <c:f>Scenarios!$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STEP FAIL</c:v>
+                  <c:v>FAILED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2593,7 +2745,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$21</c:f>
+              <c:f>Scenarios!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2604,7 +2756,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$21:$I$21</c:f>
+              <c:f>Scenarios!$I$22:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3003,11 +3155,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tags!$D$20</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO PASS</c:v>
+                  <c:v>PASSED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3045,7 +3197,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3056,7 +3208,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$21</c:f>
+              <c:f>Tags!$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3077,11 +3229,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tags!$F$20</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO SKIP</c:v>
+                  <c:v>SKIPPED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3119,7 +3271,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3130,7 +3282,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$21</c:f>
+              <c:f>Tags!$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3151,11 +3303,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tags!$E$20</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO FAIL</c:v>
+                  <c:v>FAILED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3193,7 +3345,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3204,7 +3356,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$21</c:f>
+              <c:f>Tags!$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3379,11 +3531,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$F$20</c:f>
+              <c:f>Features!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO PASS</c:v>
+                  <c:v>PASSED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3421,7 +3573,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$21</c:f>
+              <c:f>Features!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3432,7 +3584,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$21:$F$21</c:f>
+              <c:f>Features!$F$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3453,11 +3605,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$H$20</c:f>
+              <c:f>Features!$H$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO SKIP</c:v>
+                  <c:v>SKIPPED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3494,7 +3646,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$21</c:f>
+              <c:f>Features!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3505,7 +3657,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$21:$H$21</c:f>
+              <c:f>Features!$H$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3523,11 +3675,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$G$20</c:f>
+              <c:f>Features!$G$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO FAIL</c:v>
+                  <c:v>FAILED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3564,7 +3716,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$21</c:f>
+              <c:f>Features!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3575,7 +3727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$21:$G$21</c:f>
+              <c:f>Features!$G$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5831,7 +5983,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
+      <xdr:colOff>123826</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -6337,6 +6489,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>33%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1600" b="1">
@@ -6361,8 +6514,8 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -6398,8 +6551,8 @@
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
@@ -6905,6 +7058,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1600" b="1">
@@ -6931,12 +7085,12 @@
       <sheetName val="DB Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7269,21 +7423,21 @@
   <sheetData>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="43"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="7" t="s">
         <v>23</v>
       </c>
@@ -7301,80 +7455,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J21"/>
+  <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="B20" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="25">
+      <c r="E22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="24">
         <v>3</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H22" s="25">
         <v>3</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:J20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7383,76 +7558,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:H24"/>
+  <dimension ref="B20:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="60"/>
+      <c r="C21" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>29</v>
+      <c r="D21" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="44" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="44" t="s">
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="40" t="s">
+      <c r="I25" s="50" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
+  <mergeCells count="3">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7462,89 +7653,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B18:L21"/>
+  <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="12" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>33</v>
+      <c r="E21" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="32">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="31">
         <v>2</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F22" s="32">
         <v>2</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36">
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35">
         <v>6</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J22" s="36">
         <v>6</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="55"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:M20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7566,17 +7786,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>62</v>
+      <c r="D2" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -7654,7 +7874,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -7680,7 +7900,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -7706,7 +7926,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -7735,71 +7955,71 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="41">
+        <v>46</v>
+      </c>
+      <c r="D6" s="40">
         <v>0.25</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <v>0.33</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="40">
         <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="S19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="T19" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -7815,34 +8035,34 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="12">
+      <c r="H20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="11">
         <v>3</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>2</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <v>1</v>
       </c>
-      <c r="P20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="R20" s="17">
+      <c r="P20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="16">
         <v>3</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20" s="17">
         <v>2</v>
       </c>
-      <c r="T20" s="19">
+      <c r="T20" s="18">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -633,7 +633,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7427,17 +7426,17 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="57"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="7" t="s">
         <v>23</v>
       </c>
@@ -7474,48 +7473,48 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59" t="s">
+      <c r="F20" s="57"/>
+      <c r="G20" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="44" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7575,32 +7574,32 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="46" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="46" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7622,20 +7621,20 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="51" t="s">
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="49" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7674,60 +7673,60 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="65" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="58" t="s">
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="54" t="s">
+      <c r="M21" s="53" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7757,7 +7756,7 @@
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="55"/>
+      <c r="M22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7786,21 +7785,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="49" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7957,13 +7957,13 @@
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="39">
         <v>0.25</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>0.33</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="39">
         <v>0.75</v>
       </c>
     </row>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\White Back - Jan 30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -753,7 +753,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -762,7 +762,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -771,7 +771,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -1077,7 +1077,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -1104,9 +1104,7 @@
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1114,9 +1112,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="6350">
       <a:solidFill>
         <a:schemeClr val="tx1"/>
@@ -1381,7 +1377,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
@@ -1681,7 +1677,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Steps</a:t>
@@ -1701,9 +1697,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1711,9 +1705,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="6350">
       <a:solidFill>
         <a:schemeClr val="tx1"/>
@@ -1754,7 +1746,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Features</a:t>
@@ -2008,7 +2000,7 @@
             <a:r>
               <a:rPr lang="en-US" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios</a:t>
@@ -2262,7 +2254,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Steps</a:t>
@@ -2516,7 +2508,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios</a:t>
@@ -2818,7 +2810,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Steps</a:t>
@@ -2838,9 +2830,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2851,9 +2841,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -3121,7 +3109,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Tags</a:t>
@@ -3421,7 +3409,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -3442,9 +3430,7 @@
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3455,9 +3441,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -3496,7 +3480,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -3790,7 +3774,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -3812,9 +3796,7 @@
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3825,9 +3807,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -3958,9 +3938,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="12700">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -4020,9 +3998,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="12700">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -4082,9 +4058,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="12700">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -4171,7 +4145,7 @@
               <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
                 <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
@@ -4180,7 +4154,7 @@
               </a:fld>
               <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:endParaRPr>
             </a:p>
@@ -4226,7 +4200,7 @@
               <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
                 <a:rPr lang="en-US" sz="1400" i="1">
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
@@ -4234,7 +4208,7 @@
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1400" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:endParaRPr>
             </a:p>
@@ -4280,7 +4254,7 @@
               <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
                 <a:rPr lang="en-US" sz="1400" i="1">
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
@@ -4288,7 +4262,7 @@
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1400" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:endParaRPr>
             </a:p>
@@ -4333,9 +4307,7 @@
                 <a:prstGeom prst="rect">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:ln w="6350"/>
               </xdr:spPr>
               <xdr:style>
@@ -4400,24 +4372,20 @@
                     <a:prstGeom prst="roundRect">
                       <a:avLst/>
                     </a:prstGeom>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
+                    <a:ln w="3175"/>
                   </xdr:spPr>
                   <xdr:style>
-                    <a:lnRef idx="0">
-                      <a:schemeClr val="accent1"/>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
                     </a:lnRef>
-                    <a:fillRef idx="3">
-                      <a:schemeClr val="accent1"/>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="lt1"/>
                     </a:fillRef>
-                    <a:effectRef idx="3">
-                      <a:schemeClr val="accent1"/>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="dk1"/>
                     </a:effectRef>
                     <a:fontRef idx="minor">
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="dk1"/>
                     </a:fontRef>
                   </xdr:style>
                   <xdr:txBody>
@@ -4428,7 +4396,7 @@
                       <a:r>
                         <a:rPr lang="en-US" sz="1100">
                           <a:solidFill>
-                            <a:srgbClr val="51FF21"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                         </a:rPr>
                         <a:t>PASSED</a:t>
@@ -4439,7 +4407,7 @@
                       <a:r>
                         <a:rPr lang="en-US" sz="1100">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                         </a:rPr>
                         <a:t>FAILED</a:t>
@@ -4450,7 +4418,7 @@
                       <a:r>
                         <a:rPr lang="en-US" sz="1100">
                           <a:solidFill>
-                            <a:srgbClr val="FFFF00"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                         </a:rPr>
                         <a:t>SKIPPED</a:t>
@@ -4677,9 +4645,7 @@
                 <a:prstGeom prst="rect">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:ln w="6350"/>
               </xdr:spPr>
               <xdr:style>
@@ -4718,24 +4684,20 @@
                 <a:prstGeom prst="roundRect">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:ln w="3175"/>
               </xdr:spPr>
               <xdr:style>
-                <a:lnRef idx="0">
-                  <a:schemeClr val="accent1"/>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
                 </a:lnRef>
-                <a:fillRef idx="3">
-                  <a:schemeClr val="accent1"/>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
                 </a:fillRef>
-                <a:effectRef idx="3">
-                  <a:schemeClr val="accent1"/>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
                 </a:effectRef>
                 <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="dk1"/>
                 </a:fontRef>
               </xdr:style>
               <xdr:txBody>
@@ -4754,7 +4716,7 @@
                   <a:r>
                     <a:rPr lang="en-US" sz="1200">
                       <a:solidFill>
-                        <a:srgbClr val="51FF21"/>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                     </a:rPr>
                     <a:t>PASSED</a:t>
@@ -4765,7 +4727,7 @@
                   <a:r>
                     <a:rPr lang="en-US" sz="1200">
                       <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                     </a:rPr>
                     <a:t>FAILED</a:t>
@@ -4776,7 +4738,7 @@
                   <a:r>
                     <a:rPr lang="en-US" sz="1200">
                       <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                     </a:rPr>
                     <a:t>SKIPPED</a:t>
@@ -5004,9 +4966,7 @@
                 <a:prstGeom prst="rect">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:ln w="6350"/>
               </xdr:spPr>
               <xdr:style>
@@ -5045,24 +5005,20 @@
                 <a:prstGeom prst="roundRect">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:ln w="3175"/>
               </xdr:spPr>
               <xdr:style>
-                <a:lnRef idx="0">
-                  <a:schemeClr val="accent1"/>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
                 </a:lnRef>
-                <a:fillRef idx="3">
-                  <a:schemeClr val="accent1"/>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
                 </a:fillRef>
-                <a:effectRef idx="3">
-                  <a:schemeClr val="accent1"/>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
                 </a:effectRef>
                 <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="dk1"/>
                 </a:fontRef>
               </xdr:style>
               <xdr:txBody>
@@ -5073,7 +5029,7 @@
                   <a:r>
                     <a:rPr lang="en-US" sz="1100">
                       <a:solidFill>
-                        <a:srgbClr val="51FF21"/>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                     </a:rPr>
                     <a:t>PASSED</a:t>
@@ -5084,7 +5040,7 @@
                   <a:r>
                     <a:rPr lang="en-US" sz="1100">
                       <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                     </a:rPr>
                     <a:t>FAILED</a:t>
@@ -5095,7 +5051,7 @@
                   <a:r>
                     <a:rPr lang="en-US" sz="1100">
                       <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                     </a:rPr>
                     <a:t>SKIPPED</a:t>
@@ -5618,7 +5574,7 @@
           <a:fld id="{2097DC7E-C983-47ED-807E-A75BB41970B4}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -5627,7 +5583,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5785,7 +5741,7 @@
           <a:fld id="{D116F15A-412E-40A6-80BD-CB02BCF9F83C}" type="TxLink">
             <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -5794,7 +5750,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5952,7 +5908,7 @@
           <a:fld id="{CAC27D7A-61F0-4BF7-8A00-9B87280C3ADF}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -5961,7 +5917,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -6063,24 +6019,20 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:ln w="3175"/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6091,7 +6043,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>PASSED</a:t>
@@ -6102,7 +6054,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>FAILED</a:t>
@@ -6113,7 +6065,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>SKIPPED</a:t>
@@ -6632,24 +6584,20 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:ln w="3175"/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6660,7 +6608,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>PASSED</a:t>
@@ -6671,7 +6619,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>FAILED</a:t>
@@ -6682,7 +6630,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>SKIPPED</a:t>
@@ -7084,12 +7032,12 @@
       <sheetName val="DB Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/src/main/resources/templates/report template - Fail Skip DB.xlsx
+++ b/src/main/resources/templates/report template - Fail Skip DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\White Back - Jan 30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,19 +17,28 @@
     <sheet name="Tags" sheetId="20" r:id="rId3"/>
     <sheet name="Features" sheetId="19" r:id="rId4"/>
     <sheet name="Exceptions" sheetId="22" r:id="rId5"/>
-    <sheet name="DB Data" sheetId="5" r:id="rId6"/>
+    <sheet name="Authors" sheetId="23" r:id="rId6"/>
+    <sheet name="Devices" sheetId="24" r:id="rId7"/>
+    <sheet name="DB Data" sheetId="5" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Chart1" localSheetId="5">[2]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="6">[2]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="4">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="2">[2]Scenarios!#REF!</definedName>
     <definedName name="Chart1">#REF!</definedName>
+    <definedName name="Chart10" localSheetId="5">#REF!</definedName>
+    <definedName name="Chart10" localSheetId="6">#REF!</definedName>
     <definedName name="Chart10">#REF!</definedName>
+    <definedName name="Chart51" localSheetId="6">#REF!</definedName>
+    <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart71">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -70,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>Duration</t>
   </si>
@@ -262,6 +271,18 @@
   </si>
   <si>
     <t>PASS %</t>
+  </si>
+  <si>
+    <t>AUTHOR NAME</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>DEVICE NAME</t>
+  </si>
+  <si>
+    <t>device</t>
   </si>
 </sst>
 </file>
@@ -533,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -673,6 +694,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1273,9 +1298,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1348,6 +1371,748 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Authors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8373416084820274E-2"/>
+          <c:y val="9.6685905151971507E-2"/>
+          <c:w val="0.96024825446082229"/>
+          <c:h val="0.86092489769092662"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5124-4442-80A2-16D405C7E35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5124-4442-80A2-16D405C7E35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5124-4442-80A2-16D405C7E35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62946688"/>
+        <c:axId val="62968960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62946688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62968960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62968960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62946688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8373416084820274E-2"/>
+          <c:y val="9.6685905151971507E-2"/>
+          <c:w val="0.96024825446082229"/>
+          <c:h val="0.86092489769092662"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F102-4FE7-A7E0-DABD087B37CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F102-4FE7-A7E0-DABD087B37CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F102-4FE7-A7E0-DABD087B37CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62946688"/>
+        <c:axId val="62968960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62946688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62968960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62968960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62946688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2516,7 +3281,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2576,7 +3340,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2818,7 +3581,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3000,9 +3762,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3489,7 +4249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3549,7 +4308,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3782,7 +4540,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5421,6 +6178,80 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7374,17 +8205,17 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="7" t="s">
         <v>23</v>
       </c>
@@ -7421,21 +8252,21 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58" t="s">
+      <c r="F20" s="59"/>
+      <c r="G20" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
@@ -7522,19 +8353,19 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="45" t="s">
         <v>60</v>
       </c>
@@ -7572,13 +8403,13 @@
       <c r="B25" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="50" t="s">
         <v>17</v>
       </c>
@@ -7621,24 +8452,24 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="64" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="57" t="s">
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
@@ -7753,6 +8584,196 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B20:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="61"/>
+      <c r="C21" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B20:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="61"/>
+      <c r="C21" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T30"/>
